--- a/PSI_therm.xlsx
+++ b/PSI_therm.xlsx
@@ -57,12 +57,12 @@
     <t>Kepler-1649 c</t>
   </si>
   <si>
+    <t>TOI-700 d</t>
+  </si>
+  <si>
     <t>Proxima Cen b</t>
   </si>
   <si>
-    <t>TOI-700 d</t>
-  </si>
-  <si>
     <t>Kepler-1649 b</t>
   </si>
   <si>
@@ -123,6 +123,9 @@
     <t>GJ 1132 c</t>
   </si>
   <si>
+    <t>Kepler-705 b</t>
+  </si>
+  <si>
     <t>Kepler-1653 b</t>
   </si>
   <si>
@@ -132,15 +135,12 @@
     <t>GJ 433 d</t>
   </si>
   <si>
-    <t>Kepler-705 b</t>
+    <t>Kepler-443 b</t>
   </si>
   <si>
     <t>Kepler-1638 b</t>
   </si>
   <si>
-    <t>Kepler-443 b</t>
-  </si>
-  <si>
     <t>Kepler-155 c</t>
   </si>
   <si>
@@ -150,21 +150,21 @@
     <t>K2-155 d</t>
   </si>
   <si>
+    <t>Kepler-69 c</t>
+  </si>
+  <si>
+    <t>EPIC 201238110 b</t>
+  </si>
+  <si>
     <t>tau Cet e</t>
   </si>
   <si>
+    <t>GJ 180 c</t>
+  </si>
+  <si>
     <t>K2-133 e</t>
   </si>
   <si>
-    <t>Kepler-69 c</t>
-  </si>
-  <si>
-    <t>GJ 180 c</t>
-  </si>
-  <si>
-    <t>EPIC 201238110 b</t>
-  </si>
-  <si>
     <t>Kepler-1389 b</t>
   </si>
   <si>
@@ -174,51 +174,51 @@
     <t>TOI-2257 b</t>
   </si>
   <si>
+    <t>K2-125 b</t>
+  </si>
+  <si>
     <t>TOI-1452 b</t>
   </si>
   <si>
+    <t>K2-9 b</t>
+  </si>
+  <si>
+    <t>Kepler-1455 b</t>
+  </si>
+  <si>
+    <t>Kepler-1606 b</t>
+  </si>
+  <si>
     <t>Kepler-174 d</t>
   </si>
   <si>
-    <t>Kepler-1606 b</t>
-  </si>
-  <si>
-    <t>Kepler-1455 b</t>
-  </si>
-  <si>
-    <t>K2-9 b</t>
+    <t>Kepler-61 b</t>
   </si>
   <si>
     <t>K2-288 B b</t>
   </si>
   <si>
-    <t>K2-125 b</t>
-  </si>
-  <si>
-    <t>Kepler-61 b</t>
+    <t>Kepler-235 e</t>
   </si>
   <si>
     <t>GJ 3929 c</t>
   </si>
   <si>
+    <t>Kepler-1090 b</t>
+  </si>
+  <si>
     <t>K2-18 b</t>
   </si>
   <si>
-    <t>Kepler-235 e</t>
-  </si>
-  <si>
-    <t>Kepler-1090 b</t>
-  </si>
-  <si>
     <t>GJ 180 b</t>
   </si>
   <si>
+    <t>TOI-712 d</t>
+  </si>
+  <si>
     <t>Kepler-439 b</t>
   </si>
   <si>
-    <t>TOI-712 d</t>
-  </si>
-  <si>
     <t>Kepler-1552 b</t>
   </si>
   <si>
@@ -237,42 +237,42 @@
     <t>HD 40307 g</t>
   </si>
   <si>
+    <t>GJ 3293 d</t>
+  </si>
+  <si>
     <t>HD 216520 c</t>
   </si>
   <si>
-    <t>GJ 3293 d</t>
+    <t>Kepler-298 d</t>
   </si>
   <si>
     <t>GJ 3473 c</t>
   </si>
   <si>
-    <t>Kepler-298 d</t>
-  </si>
-  <si>
     <t>YZ Cet d</t>
   </si>
   <si>
+    <t>K2-239 c</t>
+  </si>
+  <si>
+    <t>K2-239 d</t>
+  </si>
+  <si>
     <t>TRAPPIST-1 c</t>
   </si>
   <si>
-    <t>K2-239 d</t>
-  </si>
-  <si>
-    <t>K2-239 c</t>
+    <t>GJ 1061 b</t>
   </si>
   <si>
     <t>K2-129 b</t>
   </si>
   <si>
-    <t>GJ 1061 b</t>
+    <t>K2-72 c</t>
   </si>
   <si>
     <t>YZ Cet c</t>
   </si>
   <si>
-    <t>K2-72 c</t>
-  </si>
-  <si>
     <t>TOI-700 b</t>
   </si>
   <si>
@@ -285,15 +285,15 @@
     <t>GJ 3323 b</t>
   </si>
   <si>
+    <t>Kepler-186 e</t>
+  </si>
+  <si>
+    <t>Kepler-367 c</t>
+  </si>
+  <si>
     <t>Kepler-138 d</t>
   </si>
   <si>
-    <t>Kepler-186 e</t>
-  </si>
-  <si>
-    <t>Kepler-367 c</t>
-  </si>
-  <si>
     <t>TOI-1266 c</t>
   </si>
   <si>
@@ -312,22 +312,28 @@
     <t>Kepler-54 d</t>
   </si>
   <si>
+    <t>Kepler-1459 b</t>
+  </si>
+  <si>
+    <t>Kepler-445 d</t>
+  </si>
+  <si>
     <t>TOI-237 b</t>
   </si>
   <si>
-    <t>Kepler-1459 b</t>
-  </si>
-  <si>
-    <t>Kepler-445 d</t>
-  </si>
-  <si>
     <t>Kepler-1450 b</t>
   </si>
   <si>
+    <t>K2-3 c</t>
+  </si>
+  <si>
     <t>GJ 3293 e</t>
   </si>
   <si>
-    <t>K2-3 c</t>
+    <t>GJ 625 b</t>
+  </si>
+  <si>
+    <t>HD 85512 b</t>
   </si>
   <si>
     <t>Kepler-220 e</t>
@@ -336,63 +342,57 @@
     <t>Kepler-249 d</t>
   </si>
   <si>
-    <t>GJ 625 b</t>
-  </si>
-  <si>
-    <t>HD 85512 b</t>
-  </si>
-  <si>
     <t>L 98-59 e</t>
   </si>
   <si>
+    <t>GJ 251 b</t>
+  </si>
+  <si>
     <t>Kepler-560 b</t>
   </si>
   <si>
-    <t>GJ 251 b</t>
+    <t>Kepler-1582 b</t>
   </si>
   <si>
     <t>Kepler-369 c</t>
   </si>
   <si>
-    <t>Kepler-1582 b</t>
-  </si>
-  <si>
     <t>L 98-59 d</t>
   </si>
   <si>
     <t>Kepler-52 d</t>
   </si>
   <si>
+    <t>HD 20794 e</t>
+  </si>
+  <si>
+    <t>K2-323 b</t>
+  </si>
+  <si>
+    <t>K2-286 b</t>
+  </si>
+  <si>
     <t>Kepler-737 b</t>
   </si>
   <si>
-    <t>K2-323 b</t>
-  </si>
-  <si>
-    <t>HD 20794 e</t>
+    <t>GJ 15 A b</t>
   </si>
   <si>
     <t>Kepler-230 c</t>
   </si>
   <si>
-    <t>GJ 15 A b</t>
-  </si>
-  <si>
-    <t>K2-286 b</t>
-  </si>
-  <si>
     <t>G 264-012 c</t>
   </si>
   <si>
+    <t>Kepler-236 c</t>
+  </si>
+  <si>
     <t>GJ 357 c</t>
   </si>
   <si>
     <t>Kepler-1853 b</t>
   </si>
   <si>
-    <t>Kepler-236 c</t>
-  </si>
-  <si>
     <t>Kepler-1816 b</t>
   </si>
   <si>
@@ -408,60 +408,60 @@
     <t>Kepler-1858 b</t>
   </si>
   <si>
+    <t>Kepler-296 b</t>
+  </si>
+  <si>
+    <t>GJ 676 A e</t>
+  </si>
+  <si>
     <t>Kepler-152 c</t>
   </si>
   <si>
     <t>Kepler-267 d</t>
   </si>
   <si>
-    <t>Kepler-296 b</t>
-  </si>
-  <si>
-    <t>GJ 676 A e</t>
-  </si>
-  <si>
     <t>Kepler-296 d</t>
   </si>
   <si>
     <t>Kepler-1020 b</t>
   </si>
   <si>
+    <t>LP 791-18 c</t>
+  </si>
+  <si>
     <t>Kepler-1040 b</t>
   </si>
   <si>
     <t>K2-384 f</t>
   </si>
   <si>
+    <t>K2-316 c</t>
+  </si>
+  <si>
     <t>TOI-270 d</t>
   </si>
   <si>
-    <t>K2-316 c</t>
+    <t>Kepler-437 b</t>
+  </si>
+  <si>
+    <t>LTT 3780 c</t>
   </si>
   <si>
     <t>Kepler-1126 b</t>
   </si>
   <si>
-    <t>Kepler-437 b</t>
-  </si>
-  <si>
-    <t>LP 791-18 c</t>
-  </si>
-  <si>
     <t>HD 40307 f</t>
   </si>
   <si>
-    <t>LTT 3780 c</t>
+    <t>Kepler-1874 b</t>
+  </si>
+  <si>
+    <t>TOI-1468 c</t>
   </si>
   <si>
     <t>Kepler-1849 b</t>
   </si>
   <si>
-    <t>TOI-1468 c</t>
-  </si>
-  <si>
-    <t>Kepler-1874 b</t>
-  </si>
-  <si>
     <t>Kepler-1388 e</t>
   </si>
   <si>
@@ -471,19 +471,25 @@
     <t>Kepler-1802 c</t>
   </si>
   <si>
+    <t>Gl 686 b</t>
+  </si>
+  <si>
     <t>GJ 3341 b</t>
   </si>
   <si>
-    <t>Gl 686 b</t>
+    <t>Kepler-1151 b</t>
+  </si>
+  <si>
+    <t>K2-150 b</t>
+  </si>
+  <si>
+    <t>TOI-2136 b</t>
   </si>
   <si>
     <t>Kepler-1101 b</t>
   </si>
   <si>
-    <t>TOI-2136 b</t>
-  </si>
-  <si>
-    <t>K2-150 b</t>
+    <t>Kepler-310 d</t>
   </si>
   <si>
     <t>Kepler-1227 b</t>
@@ -492,27 +498,21 @@
     <t>Kepler-934 b</t>
   </si>
   <si>
-    <t>Kepler-1151 b</t>
-  </si>
-  <si>
-    <t>Kepler-310 d</t>
-  </si>
-  <si>
     <t>TOI-776 c</t>
   </si>
   <si>
+    <t>Kepler-942 b</t>
+  </si>
+  <si>
     <t>Kepler-786 b</t>
   </si>
   <si>
-    <t>Kepler-942 b</t>
+    <t>Kepler-1926 b</t>
   </si>
   <si>
     <t>Kepler-482 b</t>
   </si>
   <si>
-    <t>Kepler-1926 b</t>
-  </si>
-  <si>
     <t>Kepler-1503 b</t>
   </si>
   <si>
@@ -543,10 +543,10 @@
     <t>TOI-1266 b</t>
   </si>
   <si>
+    <t>GJ 9689 b</t>
+  </si>
+  <si>
     <t>HD 285968 b</t>
-  </si>
-  <si>
-    <t>GJ 9689 b</t>
   </si>
 </sst>
 </file>
@@ -953,13 +953,13 @@
         <v>0.85</v>
       </c>
       <c r="F2">
-        <v>0.99498743710662</v>
+        <v>0.99</v>
       </c>
       <c r="G2">
-        <v>0.9219544457292888</v>
+        <v>0.92</v>
       </c>
       <c r="H2">
-        <v>0.9577750733263209</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -979,13 +979,13 @@
         <v>0.73</v>
       </c>
       <c r="F3">
-        <v>0.7846018098373213</v>
+        <v>0.78</v>
       </c>
       <c r="G3">
-        <v>0.8150460109711598</v>
+        <v>0.82</v>
       </c>
       <c r="H3">
-        <v>0.7996790451854177</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1005,13 +1005,13 @@
         <v>0.83</v>
       </c>
       <c r="F4">
-        <v>0.654828221749796</v>
+        <v>0.65</v>
       </c>
       <c r="G4">
-        <v>0.834985029805924</v>
+        <v>0.83</v>
       </c>
       <c r="H4">
-        <v>0.7394401681377025</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1031,13 +1031,13 @@
         <v>0.78</v>
       </c>
       <c r="F5">
-        <v>0.6096720429870472</v>
+        <v>0.61</v>
       </c>
       <c r="G5">
-        <v>0.7997499609252882</v>
+        <v>0.8</v>
       </c>
       <c r="H5">
-        <v>0.6982730071799508</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1045,25 +1045,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
       <c r="C6">
-        <v>0.61</v>
+        <v>0.55</v>
       </c>
       <c r="D6">
-        <v>0.8100000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="E6">
-        <v>0.73</v>
+        <v>0.95</v>
       </c>
       <c r="F6">
-        <v>0.594810894318522</v>
+        <v>0.53</v>
       </c>
       <c r="G6">
-        <v>0.7689603370785778</v>
+        <v>0.86</v>
       </c>
       <c r="H6">
-        <v>0.6763031759449167</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1071,25 +1071,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.51</v>
+        <v>0.58</v>
       </c>
       <c r="C7">
-        <v>0.55</v>
+        <v>0.61</v>
       </c>
       <c r="D7">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E7">
-        <v>0.95</v>
+        <v>0.73</v>
       </c>
       <c r="F7">
-        <v>0.5296225070746144</v>
+        <v>0.59</v>
       </c>
       <c r="G7">
-        <v>0.8608135686662938</v>
+        <v>0.77</v>
       </c>
       <c r="H7">
-        <v>0.6752082940551666</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1109,13 +1109,13 @@
         <v>0.51</v>
       </c>
       <c r="F8">
-        <v>0.6596969000988258</v>
+        <v>0.66</v>
       </c>
       <c r="G8">
-        <v>0.6545227268781428</v>
+        <v>0.65</v>
       </c>
       <c r="H8">
-        <v>0.6571047206996319</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1135,13 +1135,13 @@
         <v>0.67</v>
       </c>
       <c r="F9">
-        <v>0.5596427431853289</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G9">
-        <v>0.7275300681071539</v>
+        <v>0.73</v>
       </c>
       <c r="H9">
-        <v>0.6380884915631192</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1161,13 +1161,13 @@
         <v>0.62</v>
       </c>
       <c r="F10">
-        <v>0.5496362433464518</v>
+        <v>0.55</v>
       </c>
       <c r="G10">
-        <v>0.6998571282769077</v>
+        <v>0.7</v>
       </c>
       <c r="H10">
-        <v>0.6202151585259388</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1187,13 +1187,13 @@
         <v>0.62</v>
       </c>
       <c r="F11">
-        <v>0.5247856705360771</v>
+        <v>0.52</v>
       </c>
       <c r="G11">
-        <v>0.690941386804988</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H11">
-        <v>0.6021595627203662</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -1255,15 +1255,15 @@
         <v>0.99</v>
       </c>
       <c r="G2">
-        <v>0.9110433579144299</v>
+        <v>0.91</v>
       </c>
       <c r="H2">
-        <v>0.9497014922254706</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0.92</v>
@@ -1278,13 +1278,13 @@
         <v>0.95</v>
       </c>
       <c r="F3">
-        <v>0.9099450532861861</v>
+        <v>0.91</v>
       </c>
       <c r="G3">
         <v>0.95</v>
       </c>
       <c r="H3">
-        <v>0.9297568502688629</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1307,15 +1307,15 @@
         <v>0.96</v>
       </c>
       <c r="G4">
-        <v>0.8742997197757757</v>
+        <v>0.87</v>
       </c>
       <c r="H4">
-        <v>0.9161483127664126</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0.95</v>
@@ -1333,10 +1333,10 @@
         <v>0.95</v>
       </c>
       <c r="G5">
-        <v>0.84581321815162</v>
+        <v>0.85</v>
       </c>
       <c r="H5">
-        <v>0.8963941974622767</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1356,13 +1356,13 @@
         <v>0.73</v>
       </c>
       <c r="F6">
-        <v>0.9348796714016194</v>
+        <v>0.93</v>
       </c>
       <c r="G6">
-        <v>0.837137981458254</v>
+        <v>0.84</v>
       </c>
       <c r="H6">
-        <v>0.8846599804577505</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1385,10 +1385,10 @@
         <v>0.93</v>
       </c>
       <c r="G7">
-        <v>0.8061637550770935</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H7">
-        <v>0.8658708288317011</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1408,195 +1408,195 @@
         <v>0.71</v>
       </c>
       <c r="F8">
-        <v>0.8899438184514796</v>
+        <v>0.89</v>
       </c>
       <c r="G8">
-        <v>0.816945530620004</v>
+        <v>0.82</v>
       </c>
       <c r="H8">
-        <v>0.8526638405531435</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.93</v>
+        <v>0.74</v>
       </c>
       <c r="C9">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="D9">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="E9">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.9249864863877743</v>
+        <v>0.74</v>
       </c>
       <c r="G9">
-        <v>0.7714920608794363</v>
+        <v>0.95</v>
       </c>
       <c r="H9">
-        <v>0.84476016162514</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="C10">
-        <v>0.78</v>
+        <v>0.92</v>
       </c>
       <c r="D10">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="E10">
-        <v>0.85</v>
+        <v>0.62</v>
       </c>
       <c r="F10">
-        <v>0.8142481194328913</v>
+        <v>0.92</v>
       </c>
       <c r="G10">
-        <v>0.8697700845625814</v>
+        <v>0.77</v>
       </c>
       <c r="H10">
-        <v>0.8415513387156298</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>0.99</v>
+        <v>0.85</v>
       </c>
       <c r="C11">
-        <v>0.99</v>
+        <v>0.78</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="E11">
-        <v>0.51</v>
+        <v>0.85</v>
       </c>
       <c r="F11">
-        <v>0.99</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G11">
-        <v>0.714142842854285</v>
+        <v>0.87</v>
       </c>
       <c r="H11">
-        <v>0.840833761468783</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>0.74</v>
+        <v>0.99</v>
       </c>
       <c r="C12">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="D12">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.51</v>
       </c>
       <c r="F12">
-        <v>0.744983221287567</v>
+        <v>0.99</v>
       </c>
       <c r="G12">
-        <v>0.9486832980505138</v>
+        <v>0.71</v>
       </c>
       <c r="H12">
-        <v>0.840686112269844</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.91</v>
+        <v>0.82</v>
       </c>
       <c r="C13">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="D13">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="E13">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="F13">
-        <v>0.899944442729661</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G13">
-        <v>0.7674633541739957</v>
+        <v>0.85</v>
       </c>
       <c r="H13">
-        <v>0.831068216566819</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
+        <v>0.84</v>
+      </c>
+      <c r="C14">
         <v>0.82</v>
-      </c>
-      <c r="C14">
-        <v>0.8</v>
       </c>
       <c r="D14">
         <v>0.92</v>
       </c>
       <c r="E14">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="F14">
-        <v>0.8099382692526635</v>
+        <v>0.83</v>
       </c>
       <c r="G14">
-        <v>0.8525256594378847</v>
+        <v>0.83</v>
       </c>
       <c r="H14">
-        <v>0.8309591789604385</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>0.84</v>
+        <v>0.91</v>
       </c>
       <c r="C15">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="D15">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="E15">
-        <v>0.75</v>
+        <v>0.62</v>
       </c>
       <c r="F15">
-        <v>0.8299397568498571</v>
+        <v>0.9</v>
       </c>
       <c r="G15">
-        <v>0.8306623862918076</v>
+        <v>0.77</v>
       </c>
       <c r="H15">
-        <v>0.8303009929557743</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1616,13 +1616,13 @@
         <v>0.89</v>
       </c>
       <c r="F16">
-        <v>0.754983443527075</v>
+        <v>0.75</v>
       </c>
       <c r="G16">
-        <v>0.8949860334105779</v>
+        <v>0.89</v>
       </c>
       <c r="H16">
-        <v>0.8220095117533348</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1642,13 +1642,13 @@
         <v>0.92</v>
       </c>
       <c r="F17">
-        <v>0.7249827584156743</v>
+        <v>0.72</v>
       </c>
       <c r="G17">
-        <v>0.9099450532861861</v>
+        <v>0.91</v>
       </c>
       <c r="H17">
-        <v>0.812215780896996</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1668,13 +1668,13 @@
         <v>0.59</v>
       </c>
       <c r="F18">
-        <v>0.8848728722251575</v>
+        <v>0.88</v>
       </c>
       <c r="G18">
-        <v>0.7447147104764347</v>
+        <v>0.74</v>
       </c>
       <c r="H18">
-        <v>0.8117745036939811</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1694,13 +1694,13 @@
         <v>0.96</v>
       </c>
       <c r="F19">
-        <v>0.6748333127521196</v>
+        <v>0.67</v>
       </c>
       <c r="G19">
-        <v>0.9243376006633074</v>
+        <v>0.92</v>
       </c>
       <c r="H19">
-        <v>0.7897935205843142</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1720,13 +1720,13 @@
         <v>0.85</v>
       </c>
       <c r="F20">
-        <v>0.714982517268779</v>
+        <v>0.71</v>
       </c>
       <c r="G20">
-        <v>0.8697700845625814</v>
+        <v>0.87</v>
       </c>
       <c r="H20">
-        <v>0.7885876010346811</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1746,13 +1746,13 @@
         <v>0.97</v>
       </c>
       <c r="F21">
-        <v>0.6648308055437865</v>
+        <v>0.66</v>
       </c>
       <c r="G21">
-        <v>0.9239047569960878</v>
+        <v>0.92</v>
       </c>
       <c r="H21">
-        <v>0.7837348683320434</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1772,13 +1772,13 @@
         <v>0.93</v>
       </c>
       <c r="F22">
-        <v>0.6748333127521196</v>
+        <v>0.67</v>
       </c>
       <c r="G22">
-        <v>0.9097801932335086</v>
+        <v>0.91</v>
       </c>
       <c r="H22">
-        <v>0.7835496038388585</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1798,13 +1798,13 @@
         <v>0.65</v>
       </c>
       <c r="F23">
-        <v>0.7799358948016177</v>
+        <v>0.78</v>
       </c>
       <c r="G23">
-        <v>0.7733045971672482</v>
+        <v>0.77</v>
       </c>
       <c r="H23">
-        <v>0.7766131681511989</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1824,13 +1824,13 @@
         <v>0.88</v>
       </c>
       <c r="F24">
-        <v>0.6748333127521196</v>
+        <v>0.67</v>
       </c>
       <c r="G24">
-        <v>0.8849858755935035</v>
+        <v>0.88</v>
       </c>
       <c r="H24">
-        <v>0.7727987772800881</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1850,13 +1850,13 @@
         <v>0.75</v>
       </c>
       <c r="F25">
-        <v>0.7099295739719539</v>
+        <v>0.71</v>
       </c>
       <c r="G25">
-        <v>0.8170067319184096</v>
+        <v>0.82</v>
       </c>
       <c r="H25">
-        <v>0.7615886298541062</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1876,13 +1876,13 @@
         <v>0.79</v>
       </c>
       <c r="F26">
-        <v>0.6596969000988258</v>
+        <v>0.66</v>
       </c>
       <c r="G26">
-        <v>0.8337865434270333</v>
+        <v>0.83</v>
       </c>
       <c r="H26">
-        <v>0.7416511296040268</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1905,10 +1905,10 @@
         <v>0.78</v>
       </c>
       <c r="G27">
-        <v>0.6944782214007866</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H27">
-        <v>0.7359979705764232</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1916,25 +1916,25 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="C28">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="D28">
         <v>0.87</v>
       </c>
       <c r="E28">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="F28">
-        <v>0.5892367945062494</v>
+        <v>0.6</v>
       </c>
       <c r="G28">
-        <v>0.8848728722251575</v>
+        <v>0.86</v>
       </c>
       <c r="H28">
-        <v>0.7220800888928387</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1942,25 +1942,25 @@
         <v>35</v>
       </c>
       <c r="B29">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C29">
         <v>0.62</v>
       </c>
-      <c r="C29">
-        <v>0.67</v>
-      </c>
       <c r="D29">
+        <v>0.87</v>
+      </c>
+      <c r="E29">
+        <v>0.9</v>
+      </c>
+      <c r="F29">
+        <v>0.59</v>
+      </c>
+      <c r="G29">
         <v>0.88</v>
       </c>
-      <c r="E29">
-        <v>0.74</v>
-      </c>
-      <c r="F29">
-        <v>0.6445153217728807</v>
-      </c>
-      <c r="G29">
-        <v>0.8069696400732805</v>
-      </c>
       <c r="H29">
-        <v>0.7211825685863297</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1968,25 +1968,25 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.5600000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="C30">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
       <c r="D30">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="E30">
-        <v>0.89</v>
+        <v>0.74</v>
       </c>
       <c r="F30">
-        <v>0.5892367945062494</v>
+        <v>0.64</v>
       </c>
       <c r="G30">
-        <v>0.8799431799837987</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H30">
-        <v>0.720065898874047</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1994,25 +1994,25 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C31">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="D31">
         <v>0.87</v>
       </c>
       <c r="E31">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="F31">
-        <v>0.5992495306631453</v>
+        <v>0.59</v>
       </c>
       <c r="G31">
-        <v>0.8599418584997476</v>
+        <v>0.88</v>
       </c>
       <c r="H31">
-        <v>0.7178577540875118</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2020,25 +2020,25 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.63</v>
+        <v>0.52</v>
       </c>
       <c r="C32">
-        <v>0.67</v>
+        <v>0.59</v>
       </c>
       <c r="D32">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="E32">
-        <v>0.7</v>
+        <v>0.96</v>
       </c>
       <c r="F32">
-        <v>0.6496922348312315</v>
+        <v>0.55</v>
       </c>
       <c r="G32">
-        <v>0.7848566748139434</v>
+        <v>0.91</v>
       </c>
       <c r="H32">
-        <v>0.7140835294852277</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2046,25 +2046,25 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="C33">
-        <v>0.59</v>
+        <v>0.67</v>
       </c>
       <c r="D33">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="E33">
-        <v>0.96</v>
+        <v>0.7</v>
       </c>
       <c r="F33">
-        <v>0.5538952969650491</v>
+        <v>0.65</v>
       </c>
       <c r="G33">
-        <v>0.9086253353280438</v>
+        <v>0.78</v>
       </c>
       <c r="H33">
-        <v>0.7094246259762161</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2084,13 +2084,13 @@
         <v>0.89</v>
       </c>
       <c r="F34">
-        <v>0.5692099788303083</v>
+        <v>0.57</v>
       </c>
       <c r="G34">
-        <v>0.8748714191239761</v>
+        <v>0.87</v>
       </c>
       <c r="H34">
-        <v>0.7056809066134638</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2110,13 +2110,13 @@
         <v>0.82</v>
       </c>
       <c r="F35">
-        <v>0.5792236183029832</v>
+        <v>0.58</v>
       </c>
       <c r="G35">
-        <v>0.8397618710086806</v>
+        <v>0.84</v>
       </c>
       <c r="H35">
-        <v>0.6974309352463016</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2136,13 +2136,13 @@
         <v>0.63</v>
       </c>
       <c r="F36">
-        <v>0.6445153217728807</v>
+        <v>0.64</v>
       </c>
       <c r="G36">
-        <v>0.7445804187594514</v>
+        <v>0.74</v>
       </c>
       <c r="H36">
-        <v>0.6927434504797098</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2150,25 +2150,25 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="C37">
+        <v>0.71</v>
+      </c>
+      <c r="D37">
+        <v>0.89</v>
+      </c>
+      <c r="E37">
+        <v>0.52</v>
+      </c>
+      <c r="F37">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G37">
         <v>0.68</v>
       </c>
-      <c r="D37">
-        <v>0.88</v>
-      </c>
-      <c r="E37">
-        <v>0.58</v>
-      </c>
-      <c r="F37">
-        <v>0.6648308055437865</v>
-      </c>
-      <c r="G37">
-        <v>0.71442284397967</v>
-      </c>
       <c r="H37">
-        <v>0.6891809014053472</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2176,25 +2176,25 @@
         <v>44</v>
       </c>
       <c r="B38">
+        <v>0.63</v>
+      </c>
+      <c r="C38">
         <v>0.67</v>
       </c>
-      <c r="C38">
-        <v>0.7</v>
-      </c>
       <c r="D38">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="E38">
-        <v>0.54</v>
+        <v>0.58</v>
       </c>
       <c r="F38">
-        <v>0.6848357467305572</v>
+        <v>0.65</v>
       </c>
       <c r="G38">
-        <v>0.6932532004974806</v>
+        <v>0.71</v>
       </c>
       <c r="H38">
-        <v>0.6890316199101757</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2202,25 +2202,25 @@
         <v>45</v>
       </c>
       <c r="B39">
+        <v>0.65</v>
+      </c>
+      <c r="C39">
         <v>0.68</v>
       </c>
-      <c r="C39">
+      <c r="D39">
+        <v>0.88</v>
+      </c>
+      <c r="E39">
+        <v>0.58</v>
+      </c>
+      <c r="F39">
+        <v>0.66</v>
+      </c>
+      <c r="G39">
         <v>0.71</v>
       </c>
-      <c r="D39">
-        <v>0.89</v>
-      </c>
-      <c r="E39">
-        <v>0.52</v>
-      </c>
-      <c r="F39">
-        <v>0.6948381106416084</v>
-      </c>
-      <c r="G39">
-        <v>0.680294054067798</v>
-      </c>
       <c r="H39">
-        <v>0.6875276250516694</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2240,13 +2240,13 @@
         <v>0.87</v>
       </c>
       <c r="F40">
-        <v>0.5438749856354859</v>
+        <v>0.54</v>
       </c>
       <c r="G40">
-        <v>0.8599418584997476</v>
+        <v>0.86</v>
       </c>
       <c r="H40">
-        <v>0.6838865885063863</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2254,25 +2254,25 @@
         <v>47</v>
       </c>
       <c r="B41">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="C41">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="D41">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="E41">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="F41">
-        <v>0.6496922348312315</v>
+        <v>0.68</v>
       </c>
       <c r="G41">
-        <v>0.71442284397967</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H41">
-        <v>0.6812892000609111</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2292,13 +2292,13 @@
         <v>0.51</v>
       </c>
       <c r="F42">
-        <v>0.6748333127521196</v>
+        <v>0.67</v>
       </c>
       <c r="G42">
-        <v>0.6737210105080589</v>
+        <v>0.67</v>
       </c>
       <c r="H42">
-        <v>0.674276932270309</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2318,13 +2318,13 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="F43">
-        <v>0.5792236183029832</v>
+        <v>0.58</v>
       </c>
       <c r="G43">
-        <v>0.7703246069028302</v>
+        <v>0.77</v>
       </c>
       <c r="H43">
-        <v>0.6679747046693314</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2344,13 +2344,13 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="F44">
-        <v>0.5792236183029832</v>
+        <v>0.58</v>
       </c>
       <c r="G44">
-        <v>0.7703246069028302</v>
+        <v>0.77</v>
       </c>
       <c r="H44">
-        <v>0.6679747046693314</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2358,25 +2358,25 @@
         <v>51</v>
       </c>
       <c r="B45">
-        <v>0.6899999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C45">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="D45">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="E45">
-        <v>0.53</v>
+        <v>0.63</v>
       </c>
       <c r="F45">
-        <v>0.664529909033446</v>
+        <v>0.58</v>
       </c>
       <c r="G45">
-        <v>0.667233092704491</v>
+        <v>0.74</v>
       </c>
       <c r="H45">
-        <v>0.6658801291516516</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2384,25 +2384,25 @@
         <v>52</v>
       </c>
       <c r="B46">
-        <v>0.55</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C46">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="D46">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="E46">
+        <v>0.53</v>
+      </c>
+      <c r="F46">
+        <v>0.66</v>
+      </c>
+      <c r="G46">
         <v>0.67</v>
       </c>
-      <c r="F46">
-        <v>0.5792236183029832</v>
-      </c>
-      <c r="G46">
-        <v>0.7590783885739338</v>
-      </c>
       <c r="H46">
-        <v>0.6630807875405468</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2410,25 +2410,25 @@
         <v>53</v>
       </c>
       <c r="B47">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="C47">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="D47">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E47">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="F47">
-        <v>0.6044832503882965</v>
+        <v>0.57</v>
       </c>
       <c r="G47">
-        <v>0.7224956747275377</v>
+        <v>0.76</v>
       </c>
       <c r="H47">
-        <v>0.6608604496039897</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2448,13 +2448,13 @@
         <v>0.63</v>
       </c>
       <c r="F48">
-        <v>0.5892367945062494</v>
+        <v>0.59</v>
       </c>
       <c r="G48">
-        <v>0.740337760755184</v>
+        <v>0.74</v>
       </c>
       <c r="H48">
-        <v>0.6604803168901547</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2462,25 +2462,25 @@
         <v>55</v>
       </c>
       <c r="B49">
-        <v>0.54</v>
+        <v>0.58</v>
       </c>
       <c r="C49">
+        <v>0.63</v>
+      </c>
+      <c r="D49">
+        <v>0.87</v>
+      </c>
+      <c r="E49">
         <v>0.6</v>
       </c>
-      <c r="D49">
-        <v>0.86</v>
-      </c>
-      <c r="E49">
-        <v>0.67</v>
-      </c>
       <c r="F49">
-        <v>0.5692099788303083</v>
+        <v>0.6</v>
       </c>
       <c r="G49">
-        <v>0.7590783885739338</v>
+        <v>0.72</v>
       </c>
       <c r="H49">
-        <v>0.6573241160118145</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2488,25 +2488,25 @@
         <v>56</v>
       </c>
       <c r="B50">
-        <v>0.62</v>
+        <v>0.55</v>
       </c>
       <c r="C50">
+        <v>0.61</v>
+      </c>
+      <c r="D50">
+        <v>0.86</v>
+      </c>
+      <c r="E50">
         <v>0.67</v>
       </c>
-      <c r="D50">
-        <v>0.88</v>
-      </c>
-      <c r="E50">
-        <v>0.51</v>
-      </c>
       <c r="F50">
-        <v>0.6445153217728807</v>
+        <v>0.58</v>
       </c>
       <c r="G50">
-        <v>0.6699253689777691</v>
+        <v>0.76</v>
       </c>
       <c r="H50">
-        <v>0.6570975306227552</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2517,22 +2517,22 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="C51">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="D51">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="E51">
-        <v>0.63</v>
+        <v>0.58</v>
       </c>
       <c r="F51">
-        <v>0.5844655678480983</v>
+        <v>0.59</v>
       </c>
       <c r="G51">
-        <v>0.7360706487831178</v>
+        <v>0.71</v>
       </c>
       <c r="H51">
-        <v>0.6559023934377303</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2540,25 +2540,25 @@
         <v>58</v>
       </c>
       <c r="B52">
-        <v>0.5600000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="C52">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
       <c r="D52">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="E52">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
       <c r="F52">
-        <v>0.5892367945062494</v>
+        <v>0.64</v>
       </c>
       <c r="G52">
-        <v>0.7103520254071216</v>
+        <v>0.67</v>
       </c>
       <c r="H52">
-        <v>0.6469664214021577</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2566,25 +2566,25 @@
         <v>59</v>
       </c>
       <c r="B53">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="C53">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="D53">
         <v>0.86</v>
       </c>
       <c r="E53">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="F53">
-        <v>0.5692099788303083</v>
+        <v>0.58</v>
       </c>
       <c r="G53">
-        <v>0.7183313998427189</v>
+        <v>0.7</v>
       </c>
       <c r="H53">
-        <v>0.6394383480036365</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2592,25 +2592,25 @@
         <v>60</v>
       </c>
       <c r="B54">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="C54">
-        <v>0.51</v>
+        <v>0.6</v>
       </c>
       <c r="D54">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="E54">
-        <v>0.78</v>
+        <v>0.6</v>
       </c>
       <c r="F54">
-        <v>0.5149757275833493</v>
+        <v>0.57</v>
       </c>
       <c r="G54">
-        <v>0.78993670632526</v>
+        <v>0.72</v>
       </c>
       <c r="H54">
-        <v>0.6378073612656453</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2618,25 +2618,25 @@
         <v>61</v>
       </c>
       <c r="B55">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="C55">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="D55">
         <v>0.86</v>
       </c>
       <c r="E55">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F55">
         <v>0.57</v>
       </c>
-      <c r="F55">
-        <v>0.5792236183029832</v>
-      </c>
       <c r="G55">
-        <v>0.7001428425685718</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H55">
-        <v>0.6368196531212774</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2644,25 +2644,25 @@
         <v>62</v>
       </c>
       <c r="B56">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="C56">
-        <v>0.6</v>
+        <v>0.51</v>
       </c>
       <c r="D56">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="E56">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="F56">
-        <v>0.5692099788303083</v>
+        <v>0.51</v>
       </c>
       <c r="G56">
-        <v>0.6939740629158989</v>
+        <v>0.79</v>
       </c>
       <c r="H56">
-        <v>0.6285037483270421</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2682,13 +2682,13 @@
         <v>0.64</v>
       </c>
       <c r="F57">
-        <v>0.5338539126015656</v>
+        <v>0.53</v>
       </c>
       <c r="G57">
-        <v>0.737563556583431</v>
+        <v>0.74</v>
       </c>
       <c r="H57">
-        <v>0.6274959684925401</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2696,25 +2696,25 @@
         <v>64</v>
       </c>
       <c r="B58">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="C58">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="D58">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="E58">
-        <v>0.54</v>
+        <v>0.61</v>
       </c>
       <c r="F58">
-        <v>0.5692099788303083</v>
+        <v>0.53</v>
       </c>
       <c r="G58">
-        <v>0.6814690014960328</v>
+        <v>0.72</v>
       </c>
       <c r="H58">
-        <v>0.6228153465635446</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2722,25 +2722,25 @@
         <v>65</v>
       </c>
       <c r="B59">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="C59">
+        <v>0.6</v>
+      </c>
+      <c r="D59">
+        <v>0.86</v>
+      </c>
+      <c r="E59">
+        <v>0.54</v>
+      </c>
+      <c r="F59">
         <v>0.57</v>
       </c>
-      <c r="D59">
-        <v>0.85</v>
-      </c>
-      <c r="E59">
-        <v>0.61</v>
-      </c>
-      <c r="F59">
-        <v>0.5338539126015656</v>
-      </c>
       <c r="G59">
-        <v>0.7200694410957876</v>
+        <v>0.68</v>
       </c>
       <c r="H59">
-        <v>0.6200095874047503</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2760,13 +2760,13 @@
         <v>0.58</v>
       </c>
       <c r="F60">
-        <v>0.5338539126015656</v>
+        <v>0.53</v>
       </c>
       <c r="G60">
-        <v>0.7021395872616782</v>
+        <v>0.7</v>
       </c>
       <c r="H60">
-        <v>0.6122417544173995</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2786,13 +2786,13 @@
         <v>0.55</v>
       </c>
       <c r="F61">
-        <v>0.5438749856354859</v>
+        <v>0.54</v>
       </c>
       <c r="G61">
-        <v>0.6837397165588672</v>
+        <v>0.68</v>
       </c>
       <c r="H61">
-        <v>0.6098105677354773</v>
+        <v>0.61</v>
       </c>
     </row>
   </sheetData>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2854,15 +2854,15 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8831760866327847</v>
+        <v>0.88</v>
       </c>
       <c r="H2">
-        <v>0.9397744871152784</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0.99</v>
@@ -2877,13 +2877,13 @@
         <v>0.96</v>
       </c>
       <c r="F3">
-        <v>0.8843641783790205</v>
+        <v>0.88</v>
       </c>
       <c r="G3">
-        <v>0.9033271832508971</v>
+        <v>0.9</v>
       </c>
       <c r="H3">
-        <v>0.8937953916994171</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2903,13 +2903,13 @@
         <v>0.87</v>
       </c>
       <c r="F4">
-        <v>0.8964373932405988</v>
+        <v>0.9</v>
       </c>
       <c r="G4">
-        <v>0.8649855490122363</v>
+        <v>0.86</v>
       </c>
       <c r="H4">
-        <v>0.8805710594536464</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2929,13 +2929,13 @@
         <v>0.86</v>
       </c>
       <c r="F5">
-        <v>0.8891006692158093</v>
+        <v>0.89</v>
       </c>
       <c r="G5">
-        <v>0.8649855490122363</v>
+        <v>0.86</v>
       </c>
       <c r="H5">
-        <v>0.8769602217254688</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2955,13 +2955,13 @@
         <v>0.77</v>
       </c>
       <c r="F6">
-        <v>0.8843076387773657</v>
+        <v>0.88</v>
       </c>
       <c r="G6">
-        <v>0.8184741901856161</v>
+        <v>0.82</v>
       </c>
       <c r="H6">
-        <v>0.8507543585097044</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2981,13 +2981,13 @@
         <v>0.89</v>
       </c>
       <c r="F7">
-        <v>0.8306623862918076</v>
+        <v>0.83</v>
       </c>
       <c r="G7">
-        <v>0.8646386528486915</v>
+        <v>0.86</v>
       </c>
       <c r="H7">
-        <v>0.8474802691835532</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3007,18 +3007,18 @@
         <v>0.74</v>
       </c>
       <c r="F8">
-        <v>0.8663140308225418</v>
+        <v>0.87</v>
       </c>
       <c r="G8">
-        <v>0.8160882305241266</v>
+        <v>0.82</v>
       </c>
       <c r="H8">
-        <v>0.840826191606917</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>0.88</v>
@@ -3033,13 +3033,13 @@
         <v>0.9</v>
       </c>
       <c r="F9">
-        <v>0.8014985963805551</v>
+        <v>0.8</v>
       </c>
       <c r="G9">
-        <v>0.864291617453276</v>
+        <v>0.86</v>
       </c>
       <c r="H9">
-        <v>0.8323031408400909</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3059,13 +3059,13 @@
         <v>0.71</v>
       </c>
       <c r="F10">
-        <v>0.8799431799837987</v>
+        <v>0.88</v>
       </c>
       <c r="G10">
-        <v>0.7859389289251423</v>
+        <v>0.79</v>
       </c>
       <c r="H10">
-        <v>0.8316138529338304</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3073,77 +3073,77 @@
         <v>72</v>
       </c>
       <c r="B11">
-        <v>0.68</v>
+        <v>0.84</v>
       </c>
       <c r="C11">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="D11">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="E11">
-        <v>0.76</v>
+        <v>0.67</v>
       </c>
       <c r="F11">
-        <v>0.8121576201698781</v>
+        <v>0.87</v>
       </c>
       <c r="G11">
-        <v>0.8361817984146749</v>
+        <v>0.77</v>
       </c>
       <c r="H11">
-        <v>0.8240821678872994</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="B12">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="C12">
-        <v>0.91</v>
+        <v>0.71</v>
       </c>
       <c r="D12">
+        <v>0.83</v>
+      </c>
+      <c r="E12">
         <v>0.89</v>
       </c>
-      <c r="E12">
-        <v>0.67</v>
-      </c>
       <c r="F12">
-        <v>0.8742997197757757</v>
+        <v>0.78</v>
       </c>
       <c r="G12">
-        <v>0.7722046360907192</v>
+        <v>0.86</v>
       </c>
       <c r="H12">
-        <v>0.821667996786823</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B13">
-        <v>0.86</v>
+        <v>0.68</v>
       </c>
       <c r="C13">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="D13">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="E13">
-        <v>0.89</v>
+        <v>0.76</v>
       </c>
       <c r="F13">
-        <v>0.781408983823452</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G13">
-        <v>0.8594765849050223</v>
+        <v>0.84</v>
       </c>
       <c r="H13">
-        <v>0.8195137124116255</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3163,13 +3163,13 @@
         <v>0.82</v>
       </c>
       <c r="F14">
-        <v>0.8115417426109393</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G14">
-        <v>0.8249848483457135</v>
+        <v>0.82</v>
       </c>
       <c r="H14">
-        <v>0.8182356882060949</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3189,18 +3189,18 @@
         <v>0.64</v>
       </c>
       <c r="F15">
-        <v>0.8926365441768559</v>
+        <v>0.89</v>
       </c>
       <c r="G15">
-        <v>0.7418894796396563</v>
+        <v>0.74</v>
       </c>
       <c r="H15">
-        <v>0.8137798604455069</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16">
         <v>0.9399999999999999</v>
@@ -3215,18 +3215,18 @@
         <v>0.61</v>
       </c>
       <c r="F16">
-        <v>0.8885943956609225</v>
+        <v>0.89</v>
       </c>
       <c r="G16">
-        <v>0.7284915922644543</v>
+        <v>0.73</v>
       </c>
       <c r="H16">
-        <v>0.8045704109475416</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17">
         <v>0.84</v>
@@ -3241,122 +3241,122 @@
         <v>0.85</v>
       </c>
       <c r="F17">
-        <v>0.7668115805072325</v>
+        <v>0.77</v>
       </c>
       <c r="G17">
-        <v>0.8348652585896721</v>
+        <v>0.83</v>
       </c>
       <c r="H17">
-        <v>0.8001152094853127</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="C18">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="D18">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E18">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="F18">
-        <v>0.8885943956609225</v>
+        <v>0.9</v>
       </c>
       <c r="G18">
-        <v>0.7103520254071216</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H18">
-        <v>0.7944902949206828</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B19">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C19">
-        <v>0.76</v>
+        <v>0.84</v>
       </c>
       <c r="D19">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="E19">
-        <v>0.67</v>
+        <v>0.58</v>
       </c>
       <c r="F19">
-        <v>0.8407139822793481</v>
+        <v>0.89</v>
       </c>
       <c r="G19">
-        <v>0.7501999733404421</v>
+        <v>0.71</v>
       </c>
       <c r="H19">
-        <v>0.7941685004411242</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B20">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="C20">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="D20">
         <v>0.84</v>
       </c>
       <c r="E20">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F20">
-        <v>0.8261355820929153</v>
+        <v>0.84</v>
       </c>
       <c r="G20">
-        <v>0.7613146524269712</v>
+        <v>0.75</v>
       </c>
       <c r="H20">
-        <v>0.7930631270829714</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B21">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="C21">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="D21">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="E21">
-        <v>0.55</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F21">
-        <v>0.8964373932405988</v>
+        <v>0.83</v>
       </c>
       <c r="G21">
-        <v>0.687749954561976</v>
+        <v>0.76</v>
       </c>
       <c r="H21">
-        <v>0.7851909172098707</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B22">
         <v>0.89</v>
@@ -3368,21 +3368,21 @@
         <v>0.83</v>
       </c>
       <c r="E22">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F22">
-        <v>0.8060397012554654</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G22">
-        <v>0.7567694497005015</v>
+        <v>0.75</v>
       </c>
       <c r="H22">
-        <v>0.7810161465397852</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B23">
         <v>0.89</v>
@@ -3394,21 +3394,21 @@
         <v>0.83</v>
       </c>
       <c r="E23">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F23">
-        <v>0.8060397012554654</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G23">
-        <v>0.7457211275000863</v>
+        <v>0.76</v>
       </c>
       <c r="H23">
-        <v>0.7752940312101329</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24">
         <v>0.93</v>
@@ -3423,44 +3423,44 @@
         <v>0.6</v>
       </c>
       <c r="F24">
-        <v>0.8407139822793481</v>
+        <v>0.84</v>
       </c>
       <c r="G24">
-        <v>0.7099295739719539</v>
+        <v>0.71</v>
       </c>
       <c r="H24">
-        <v>0.7725592011437327</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B25">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="C25">
-        <v>0.9</v>
+        <v>0.73</v>
       </c>
       <c r="D25">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="E25">
-        <v>0.51</v>
+        <v>0.63</v>
       </c>
       <c r="F25">
-        <v>0.8746427842267951</v>
+        <v>0.8</v>
       </c>
       <c r="G25">
-        <v>0.6699253689777691</v>
+        <v>0.72</v>
       </c>
       <c r="H25">
-        <v>0.7654706982941143</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26">
         <v>0.92</v>
@@ -3475,44 +3475,44 @@
         <v>0.5</v>
       </c>
       <c r="F26">
-        <v>0.8843076387773657</v>
+        <v>0.88</v>
       </c>
       <c r="G26">
-        <v>0.6595452979136459</v>
+        <v>0.66</v>
       </c>
       <c r="H26">
-        <v>0.7637021311118167</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B27">
+        <v>0.85</v>
+      </c>
+      <c r="C27">
+        <v>0.9</v>
+      </c>
+      <c r="D27">
         <v>0.88</v>
       </c>
-      <c r="C27">
-        <v>0.73</v>
-      </c>
-      <c r="D27">
-        <v>0.83</v>
-      </c>
       <c r="E27">
-        <v>0.63</v>
+        <v>0.51</v>
       </c>
       <c r="F27">
-        <v>0.8014985963805551</v>
+        <v>0.87</v>
       </c>
       <c r="G27">
-        <v>0.723118247591637</v>
+        <v>0.67</v>
       </c>
       <c r="H27">
-        <v>0.7613003746628947</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28">
         <v>0.93</v>
@@ -3527,70 +3527,70 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="F28">
-        <v>0.8407139822793481</v>
+        <v>0.84</v>
       </c>
       <c r="G28">
-        <v>0.6858571279792899</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H28">
-        <v>0.7593481924243616</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B29">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="C29">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="D29">
+        <v>0.84</v>
+      </c>
+      <c r="E29">
+        <v>0.57</v>
+      </c>
+      <c r="F29">
         <v>0.83</v>
       </c>
-      <c r="E29">
-        <v>0.63</v>
-      </c>
-      <c r="F29">
-        <v>0.7914543574963752</v>
-      </c>
       <c r="G29">
-        <v>0.723118247591637</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H29">
-        <v>0.7565150943910794</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B30">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="C30">
+        <v>0.72</v>
+      </c>
+      <c r="D30">
+        <v>0.83</v>
+      </c>
+      <c r="E30">
+        <v>0.63</v>
+      </c>
+      <c r="F30">
+        <v>0.79</v>
+      </c>
+      <c r="G30">
+        <v>0.72</v>
+      </c>
+      <c r="H30">
         <v>0.75</v>
-      </c>
-      <c r="D30">
-        <v>0.84</v>
-      </c>
-      <c r="E30">
-        <v>0.57</v>
-      </c>
-      <c r="F30">
-        <v>0.8261355820929153</v>
-      </c>
-      <c r="G30">
-        <v>0.6919537556802478</v>
-      </c>
-      <c r="H30">
-        <v>0.7560738183076309</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B31">
         <v>0.92</v>
@@ -3605,117 +3605,117 @@
         <v>0.54</v>
       </c>
       <c r="F31">
-        <v>0.8306623862918076</v>
+        <v>0.83</v>
       </c>
       <c r="G31">
-        <v>0.6734983296193094</v>
+        <v>0.67</v>
       </c>
       <c r="H31">
-        <v>0.7479637221450797</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B32">
-        <v>0.87</v>
+        <v>0.66</v>
       </c>
       <c r="C32">
-        <v>0.72</v>
+        <v>0.58</v>
       </c>
       <c r="D32">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="E32">
-        <v>0.58</v>
+        <v>0.97</v>
       </c>
       <c r="F32">
-        <v>0.7914543574963752</v>
+        <v>0.62</v>
       </c>
       <c r="G32">
-        <v>0.6938299503480662</v>
+        <v>0.88</v>
       </c>
       <c r="H32">
-        <v>0.7410362592778241</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B33">
-        <v>0.66</v>
+        <v>0.87</v>
       </c>
       <c r="C33">
+        <v>0.72</v>
+      </c>
+      <c r="D33">
+        <v>0.83</v>
+      </c>
+      <c r="E33">
         <v>0.58</v>
       </c>
-      <c r="D33">
+      <c r="F33">
         <v>0.79</v>
       </c>
-      <c r="E33">
-        <v>0.97</v>
-      </c>
-      <c r="F33">
-        <v>0.6187083319303207</v>
-      </c>
       <c r="G33">
-        <v>0.8753856293085922</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H33">
-        <v>0.735940474838348</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B34">
-        <v>0.82</v>
+        <v>0.63</v>
       </c>
       <c r="C34">
-        <v>0.6899999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="D34">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="E34">
+        <v>0.96</v>
+      </c>
+      <c r="F34">
         <v>0.6</v>
       </c>
-      <c r="F34">
-        <v>0.7521967827636595</v>
-      </c>
       <c r="G34">
-        <v>0.7014271166700072</v>
+        <v>0.87</v>
       </c>
       <c r="H34">
-        <v>0.7263685156326433</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B35">
-        <v>0.63</v>
+        <v>0.82</v>
       </c>
       <c r="C35">
-        <v>0.57</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D35">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="E35">
-        <v>0.96</v>
+        <v>0.6</v>
       </c>
       <c r="F35">
-        <v>0.5992495306631453</v>
+        <v>0.75</v>
       </c>
       <c r="G35">
-        <v>0.8653323061113575</v>
+        <v>0.7</v>
       </c>
       <c r="H35">
-        <v>0.7201041440686813</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3735,13 +3735,13 @@
         <v>0.93</v>
       </c>
       <c r="F36">
-        <v>0.60398675482166</v>
+        <v>0.6</v>
       </c>
       <c r="G36">
-        <v>0.8517041739947034</v>
+        <v>0.85</v>
       </c>
       <c r="H36">
-        <v>0.7172294194461932</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3761,13 +3761,13 @@
         <v>0.88</v>
       </c>
       <c r="F37">
-        <v>0.60398675482166</v>
+        <v>0.6</v>
       </c>
       <c r="G37">
-        <v>0.8284926070883192</v>
+        <v>0.83</v>
       </c>
       <c r="H37">
-        <v>0.7073885503377974</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3787,18 +3787,18 @@
         <v>0.79</v>
       </c>
       <c r="F38">
-        <v>0.628728876384726</v>
+        <v>0.63</v>
       </c>
       <c r="G38">
         <v>0.79</v>
       </c>
       <c r="H38">
-        <v>0.7047664949073087</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B39">
         <v>0.71</v>
@@ -3813,18 +3813,18 @@
         <v>0.74</v>
       </c>
       <c r="F39">
-        <v>0.6526867548832288</v>
+        <v>0.65</v>
       </c>
       <c r="G39">
-        <v>0.7597367965289031</v>
+        <v>0.76</v>
       </c>
       <c r="H39">
-        <v>0.7041804770737611</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>0.6899999999999999</v>
@@ -3839,13 +3839,13 @@
         <v>0.7</v>
       </c>
       <c r="F40">
-        <v>0.6487680633323437</v>
+        <v>0.65</v>
       </c>
       <c r="G40">
-        <v>0.7436396977031282</v>
+        <v>0.74</v>
       </c>
       <c r="H40">
-        <v>0.6945859820755873</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3865,18 +3865,18 @@
         <v>0.63</v>
       </c>
       <c r="F41">
-        <v>0.6634756966159349</v>
+        <v>0.66</v>
       </c>
       <c r="G41">
-        <v>0.7054785609782909</v>
+        <v>0.71</v>
       </c>
       <c r="H41">
-        <v>0.6841548652846655</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>0.6899999999999999</v>
@@ -3891,13 +3891,13 @@
         <v>0.58</v>
       </c>
       <c r="F42">
-        <v>0.6487680633323437</v>
+        <v>0.65</v>
       </c>
       <c r="G42">
-        <v>0.6769047200308179</v>
+        <v>0.68</v>
       </c>
       <c r="H42">
-        <v>0.6626870786992274</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3917,18 +3917,18 @@
         <v>0.85</v>
       </c>
       <c r="F43">
-        <v>0.5296225070746144</v>
+        <v>0.53</v>
       </c>
       <c r="G43">
-        <v>0.8037412518964048</v>
+        <v>0.8</v>
       </c>
       <c r="H43">
-        <v>0.6524411520349273</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44">
         <v>0.57</v>
@@ -3943,18 +3943,18 @@
         <v>0.53</v>
       </c>
       <c r="F44">
-        <v>0.617980582219215</v>
+        <v>0.62</v>
       </c>
       <c r="G44">
-        <v>0.686804193347711</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H44">
-        <v>0.6514841941871014</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B45">
         <v>0.71</v>
@@ -3969,65 +3969,65 @@
         <v>0.51</v>
       </c>
       <c r="F45">
-        <v>0.6634756966159349</v>
+        <v>0.66</v>
       </c>
       <c r="G45">
-        <v>0.634744042902334</v>
+        <v>0.63</v>
       </c>
       <c r="H45">
-        <v>0.6489508810668501</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B46">
-        <v>0.65</v>
+        <v>0.57</v>
       </c>
       <c r="C46">
-        <v>0.58</v>
+        <v>0.52</v>
       </c>
       <c r="D46">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="E46">
-        <v>0.58</v>
+        <v>0.75</v>
       </c>
       <c r="F46">
-        <v>0.6140032573203501</v>
+        <v>0.54</v>
       </c>
       <c r="G46">
-        <v>0.6726068688320095</v>
+        <v>0.75</v>
       </c>
       <c r="H46">
-        <v>0.6426373848126915</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>0.57</v>
+        <v>0.65</v>
       </c>
       <c r="C47">
-        <v>0.52</v>
+        <v>0.58</v>
       </c>
       <c r="D47">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="E47">
-        <v>0.75</v>
+        <v>0.58</v>
       </c>
       <c r="F47">
-        <v>0.544426303552648</v>
+        <v>0.61</v>
       </c>
       <c r="G47">
-        <v>0.754983443527075</v>
+        <v>0.67</v>
       </c>
       <c r="H47">
-        <v>0.6411184332109745</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -4047,18 +4047,18 @@
         <v>0.51</v>
       </c>
       <c r="F48">
-        <v>0.5939696961966999</v>
+        <v>0.59</v>
       </c>
       <c r="G48">
-        <v>0.6307138812488592</v>
+        <v>0.63</v>
       </c>
       <c r="H48">
-        <v>0.6120661176967945</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>0.61</v>
@@ -4073,18 +4073,18 @@
         <v>0.54</v>
       </c>
       <c r="F49">
-        <v>0.5792236183029832</v>
+        <v>0.58</v>
       </c>
       <c r="G49">
-        <v>0.6448255578061404</v>
+        <v>0.64</v>
       </c>
       <c r="H49">
-        <v>0.611144985062229</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B50">
         <v>0.6</v>
@@ -4099,13 +4099,13 @@
         <v>0.52</v>
       </c>
       <c r="F50">
-        <v>0.5692099788303083</v>
+        <v>0.57</v>
       </c>
       <c r="G50">
-        <v>0.632771680782255</v>
+        <v>0.63</v>
       </c>
       <c r="H50">
-        <v>0.60014994378279</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -4164,13 +4164,13 @@
         <v>0.97</v>
       </c>
       <c r="F2">
-        <v>0.6396874236687791</v>
+        <v>0.64</v>
       </c>
       <c r="G2">
-        <v>0.8972736483370053</v>
+        <v>0.9</v>
       </c>
       <c r="H2">
-        <v>0.7576111591249068</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4190,13 +4190,13 @@
         <v>0.67</v>
       </c>
       <c r="F3">
-        <v>0.6596969000988258</v>
+        <v>0.66</v>
       </c>
       <c r="G3">
-        <v>0.7501999733404421</v>
+        <v>0.75</v>
       </c>
       <c r="H3">
-        <v>0.7034945606519721</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4204,25 +4204,25 @@
         <v>77</v>
       </c>
       <c r="B4">
-        <v>0.55</v>
+        <v>0.66</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D4">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="E4">
-        <v>0.78</v>
+        <v>0.52</v>
       </c>
       <c r="F4">
-        <v>0.5744562646538028</v>
+        <v>0.68</v>
       </c>
       <c r="G4">
-        <v>0.7948584779695063</v>
+        <v>0.66</v>
       </c>
       <c r="H4">
-        <v>0.6757302954454311</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4242,13 +4242,13 @@
         <v>0.79</v>
       </c>
       <c r="F5">
-        <v>0.5696490147450446</v>
+        <v>0.57</v>
       </c>
       <c r="G5">
-        <v>0.7949842765740717</v>
+        <v>0.79</v>
       </c>
       <c r="H5">
-        <v>0.6729502283885651</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4256,25 +4256,25 @@
         <v>79</v>
       </c>
       <c r="B6">
-        <v>0.66</v>
+        <v>0.55</v>
       </c>
       <c r="C6">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D6">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E6">
-        <v>0.52</v>
+        <v>0.78</v>
       </c>
       <c r="F6">
-        <v>0.6797058187186571</v>
+        <v>0.57</v>
       </c>
       <c r="G6">
-        <v>0.6648308055437865</v>
+        <v>0.79</v>
       </c>
       <c r="H6">
-        <v>0.6722271691857773</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4282,25 +4282,25 @@
         <v>80</v>
       </c>
       <c r="B7">
-        <v>0.61</v>
+        <v>0.55</v>
       </c>
       <c r="C7">
+        <v>0.59</v>
+      </c>
+      <c r="D7">
+        <v>0.8</v>
+      </c>
+      <c r="E7">
+        <v>0.7</v>
+      </c>
+      <c r="F7">
+        <v>0.57</v>
+      </c>
+      <c r="G7">
+        <v>0.75</v>
+      </c>
+      <c r="H7">
         <v>0.65</v>
-      </c>
-      <c r="D7">
-        <v>0.83</v>
-      </c>
-      <c r="E7">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="F7">
-        <v>0.6296824596572467</v>
-      </c>
-      <c r="G7">
-        <v>0.6817624219623725</v>
-      </c>
-      <c r="H7">
-        <v>0.6552051882907738</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4308,25 +4308,25 @@
         <v>81</v>
       </c>
       <c r="B8">
-        <v>0.55</v>
+        <v>0.61</v>
       </c>
       <c r="C8">
-        <v>0.59</v>
+        <v>0.65</v>
       </c>
       <c r="D8">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="E8">
-        <v>0.7</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F8">
-        <v>0.5696490147450446</v>
+        <v>0.63</v>
       </c>
       <c r="G8">
-        <v>0.7483314773547882</v>
+        <v>0.68</v>
       </c>
       <c r="H8">
-        <v>0.6529060336509831</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4334,25 +4334,25 @@
         <v>82</v>
       </c>
       <c r="B9">
-        <v>0.61</v>
+        <v>0.51</v>
       </c>
       <c r="C9">
+        <v>0.53</v>
+      </c>
+      <c r="D9">
+        <v>0.77</v>
+      </c>
+      <c r="E9">
+        <v>0.85</v>
+      </c>
+      <c r="F9">
+        <v>0.52</v>
+      </c>
+      <c r="G9">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H9">
         <v>0.65</v>
-      </c>
-      <c r="D9">
-        <v>0.83</v>
-      </c>
-      <c r="E9">
-        <v>0.54</v>
-      </c>
-      <c r="F9">
-        <v>0.6296824596572467</v>
-      </c>
-      <c r="G9">
-        <v>0.6694774081326419</v>
-      </c>
-      <c r="H9">
-        <v>0.6492751196818806</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4360,25 +4360,25 @@
         <v>83</v>
       </c>
       <c r="B10">
-        <v>0.51</v>
+        <v>0.61</v>
       </c>
       <c r="C10">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="D10">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="E10">
-        <v>0.85</v>
+        <v>0.54</v>
       </c>
       <c r="F10">
-        <v>0.5199038372622383</v>
+        <v>0.63</v>
       </c>
       <c r="G10">
-        <v>0.8090117428072351</v>
+        <v>0.67</v>
       </c>
       <c r="H10">
-        <v>0.6485432209773629</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4398,13 +4398,13 @@
         <v>0.5</v>
       </c>
       <c r="F11">
-        <v>0.6296824596572467</v>
+        <v>0.63</v>
       </c>
       <c r="G11">
-        <v>0.6442049363362563</v>
+        <v>0.64</v>
       </c>
       <c r="H11">
-        <v>0.6369023071363095</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4424,13 +4424,13 @@
         <v>0.63</v>
       </c>
       <c r="F12">
-        <v>0.5591958512006325</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G12">
-        <v>0.7099295739719539</v>
+        <v>0.71</v>
       </c>
       <c r="H12">
-        <v>0.6300711645598053</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4450,13 +4450,13 @@
         <v>0.53</v>
       </c>
       <c r="F13">
-        <v>0.5496362433464518</v>
+        <v>0.55</v>
       </c>
       <c r="G13">
-        <v>0.6470703207534712</v>
+        <v>0.65</v>
       </c>
       <c r="H13">
-        <v>0.5963667498108203</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4476,13 +4476,13 @@
         <v>0.61</v>
       </c>
       <c r="F14">
-        <v>0.5099019513592785</v>
+        <v>0.51</v>
       </c>
       <c r="G14">
-        <v>0.6808817812219681</v>
+        <v>0.68</v>
       </c>
       <c r="H14">
-        <v>0.5892223255190377</v>
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>
@@ -4544,166 +4544,166 @@
         <v>0.98</v>
       </c>
       <c r="G2">
-        <v>0.9799489782636644</v>
+        <v>0.98</v>
       </c>
       <c r="H2">
-        <v>0.9799744887997804</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="C3">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="D3">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.79</v>
+        <v>0.67</v>
       </c>
       <c r="F3">
-        <v>0.934986630920464</v>
+        <v>0.99</v>
       </c>
       <c r="G3">
-        <v>0.8753856293085922</v>
+        <v>0.82</v>
       </c>
       <c r="H3">
-        <v>0.904695451687158</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B4">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="C4">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="D4">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="E4">
-        <v>0.78</v>
+        <v>0.85</v>
       </c>
       <c r="F4">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="G4">
-        <v>0.8698275691193054</v>
+        <v>0.9</v>
       </c>
       <c r="H4">
-        <v>0.9042333299387647</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B5">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C5">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="E5">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="F5">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="G5">
-        <v>0.8185352771872451</v>
+        <v>0.88</v>
       </c>
       <c r="H5">
-        <v>0.9001943814617889</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B6">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C6">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D6">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="E6">
-        <v>0.85</v>
+        <v>0.78</v>
       </c>
       <c r="F6">
-        <v>0.899944442729661</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G6">
-        <v>0.8986100377805715</v>
+        <v>0.87</v>
       </c>
       <c r="H6">
-        <v>0.8992769927456812</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B7">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.93</v>
+      </c>
+      <c r="D7">
+        <v>0.97</v>
+      </c>
+      <c r="E7">
+        <v>0.7</v>
+      </c>
+      <c r="F7">
+        <v>0.93</v>
+      </c>
+      <c r="G7">
+        <v>0.82</v>
+      </c>
+      <c r="H7">
         <v>0.87</v>
-      </c>
-      <c r="C7">
-        <v>0.84</v>
-      </c>
-      <c r="D7">
-        <v>0.93</v>
-      </c>
-      <c r="E7">
-        <v>0.88</v>
-      </c>
-      <c r="F7">
-        <v>0.8548684109265005</v>
-      </c>
-      <c r="G7">
-        <v>0.9046546302318913</v>
-      </c>
-      <c r="H7">
-        <v>0.8794092711494675</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B8">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="C8">
+        <v>0.84</v>
+      </c>
+      <c r="D8">
         <v>0.93</v>
       </c>
-      <c r="D8">
-        <v>0.97</v>
-      </c>
       <c r="E8">
-        <v>0.7</v>
+        <v>0.88</v>
       </c>
       <c r="F8">
-        <v>0.934986630920464</v>
+        <v>0.85</v>
       </c>
       <c r="G8">
-        <v>0.8240145629781066</v>
+        <v>0.9</v>
       </c>
       <c r="H8">
-        <v>0.8777485973035208</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4726,15 +4726,15 @@
         <v>0.93</v>
       </c>
       <c r="G9">
-        <v>0.781728853247723</v>
+        <v>0.78</v>
       </c>
       <c r="H9">
-        <v>0.85264754354914</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B10">
         <v>0.97</v>
@@ -4749,39 +4749,39 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="F10">
-        <v>0.9749871794028884</v>
+        <v>0.97</v>
       </c>
       <c r="G10">
-        <v>0.7445804187594514</v>
+        <v>0.74</v>
       </c>
       <c r="H10">
-        <v>0.8520307285097756</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="C11">
+        <v>0.97</v>
+      </c>
+      <c r="D11">
         <v>0.99</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
       <c r="E11">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="F11">
-        <v>0.99498743710662</v>
+        <v>0.97</v>
       </c>
       <c r="G11">
-        <v>0.7211102550927979</v>
+        <v>0.73</v>
       </c>
       <c r="H11">
-        <v>0.8470511463814236</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4789,25 +4789,25 @@
         <v>88</v>
       </c>
       <c r="B12">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="C12">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="D12">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="E12">
-        <v>0.72</v>
+        <v>0.79</v>
       </c>
       <c r="F12">
-        <v>0.8899438184514796</v>
+        <v>0.84</v>
       </c>
       <c r="G12">
-        <v>0.8049844718999243</v>
+        <v>0.85</v>
       </c>
       <c r="H12">
-        <v>0.846398815403688</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4815,51 +4815,51 @@
         <v>89</v>
       </c>
       <c r="B13">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="C13">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="D13">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="E13">
-        <v>0.79</v>
+        <v>0.7</v>
       </c>
       <c r="F13">
-        <v>0.8399404740813482</v>
+        <v>0.87</v>
       </c>
       <c r="G13">
-        <v>0.8525256594378847</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H13">
-        <v>0.846209670563254</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B14">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0.52</v>
+      </c>
+      <c r="F14">
         <v>0.99</v>
       </c>
-      <c r="E14">
-        <v>0.54</v>
-      </c>
-      <c r="F14">
-        <v>0.97</v>
-      </c>
       <c r="G14">
-        <v>0.7311634564172365</v>
+        <v>0.72</v>
       </c>
       <c r="H14">
-        <v>0.8421570831648448</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4867,25 +4867,25 @@
         <v>90</v>
       </c>
       <c r="B15">
+        <v>0.88</v>
+      </c>
+      <c r="C15">
+        <v>0.9</v>
+      </c>
+      <c r="D15">
+        <v>0.9</v>
+      </c>
+      <c r="E15">
+        <v>0.72</v>
+      </c>
+      <c r="F15">
         <v>0.89</v>
       </c>
-      <c r="C15">
-        <v>0.86</v>
-      </c>
-      <c r="D15">
-        <v>0.93</v>
-      </c>
-      <c r="E15">
-        <v>0.7</v>
-      </c>
-      <c r="F15">
-        <v>0.8748714191239761</v>
-      </c>
       <c r="G15">
-        <v>0.8068457101577724</v>
+        <v>0.8</v>
       </c>
       <c r="H15">
-        <v>0.8401703704962599</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4905,91 +4905,91 @@
         <v>0.83</v>
       </c>
       <c r="F16">
-        <v>0.7736924453553879</v>
+        <v>0.77</v>
       </c>
       <c r="G16">
-        <v>0.8879752248796134</v>
+        <v>0.89</v>
       </c>
       <c r="H16">
-        <v>0.828866529154187</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B17">
-        <v>0.97</v>
+        <v>0.77</v>
       </c>
       <c r="C17">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="D17">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="E17">
-        <v>0.5</v>
+        <v>0.87</v>
       </c>
       <c r="F17">
-        <v>0.9749871794028884</v>
+        <v>0.77</v>
       </c>
       <c r="G17">
-        <v>0.7035623639735145</v>
+        <v>0.89</v>
       </c>
       <c r="H17">
-        <v>0.8282296087345375</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B18">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
       <c r="C18">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="D18">
         <v>0.91</v>
       </c>
       <c r="E18">
-        <v>0.87</v>
+        <v>0.77</v>
       </c>
       <c r="F18">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G18">
-        <v>0.8897752525216691</v>
+        <v>0.84</v>
       </c>
       <c r="H18">
-        <v>0.8277239542514674</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B19">
+        <v>0.9</v>
+      </c>
+      <c r="C19">
+        <v>0.87</v>
+      </c>
+      <c r="D19">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E19">
+        <v>0.61</v>
+      </c>
+      <c r="F19">
+        <v>0.88</v>
+      </c>
+      <c r="G19">
+        <v>0.76</v>
+      </c>
+      <c r="H19">
         <v>0.82</v>
-      </c>
-      <c r="C19">
-        <v>0.8</v>
-      </c>
-      <c r="D19">
-        <v>0.91</v>
-      </c>
-      <c r="E19">
-        <v>0.77</v>
-      </c>
-      <c r="F19">
-        <v>0.8099382692526635</v>
-      </c>
-      <c r="G19">
-        <v>0.8370782520170978</v>
-      </c>
-      <c r="H19">
-        <v>0.8233964480538966</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -5009,91 +5009,91 @@
         <v>0.75</v>
       </c>
       <c r="F20">
-        <v>0.8099382692526635</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G20">
-        <v>0.8306623862918076</v>
+        <v>0.83</v>
       </c>
       <c r="H20">
-        <v>0.8202348782431006</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B21">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="C21">
-        <v>0.87</v>
+        <v>0.98</v>
       </c>
       <c r="D21">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="E21">
-        <v>0.61</v>
+        <v>0.5</v>
       </c>
       <c r="F21">
-        <v>0.8848728722251575</v>
+        <v>0.97</v>
       </c>
       <c r="G21">
-        <v>0.757231800705702</v>
+        <v>0.7</v>
       </c>
       <c r="H21">
-        <v>0.8185681880153189</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="C22">
+        <v>0.92</v>
+      </c>
+      <c r="D22">
+        <v>0.96</v>
+      </c>
+      <c r="E22">
+        <v>0.53</v>
+      </c>
+      <c r="F22">
+        <v>0.92</v>
+      </c>
+      <c r="G22">
+        <v>0.71</v>
+      </c>
+      <c r="H22">
         <v>0.8100000000000001</v>
-      </c>
-      <c r="D22">
-        <v>0.92</v>
-      </c>
-      <c r="E22">
-        <v>0.71</v>
-      </c>
-      <c r="F22">
-        <v>0.8199390221229869</v>
-      </c>
-      <c r="G22">
-        <v>0.8082078940470701</v>
-      </c>
-      <c r="H22">
-        <v>0.8140523265227078</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="B23">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="C23">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D23">
         <v>0.92</v>
       </c>
-      <c r="D23">
-        <v>0.96</v>
-      </c>
       <c r="E23">
-        <v>0.53</v>
+        <v>0.71</v>
       </c>
       <c r="F23">
-        <v>0.9249864863877743</v>
+        <v>0.82</v>
       </c>
       <c r="G23">
-        <v>0.7133021800050804</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H23">
-        <v>0.812277586306331</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -5113,13 +5113,13 @@
         <v>0.86</v>
       </c>
       <c r="F24">
-        <v>0.744983221287567</v>
+        <v>0.74</v>
       </c>
       <c r="G24">
-        <v>0.8797726979169108</v>
+        <v>0.88</v>
       </c>
       <c r="H24">
-        <v>0.8095776049860778</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -5127,25 +5127,25 @@
         <v>97</v>
       </c>
       <c r="B25">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C25">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="D25">
         <v>0.91</v>
       </c>
       <c r="E25">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="F25">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="G25">
-        <v>0.8316249154516716</v>
+        <v>0.8</v>
       </c>
       <c r="H25">
-        <v>0.8053989285144995</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -5153,77 +5153,77 @@
         <v>98</v>
       </c>
       <c r="B26">
-        <v>0.8100000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="C26">
+        <v>0.83</v>
+      </c>
+      <c r="D26">
+        <v>0.92</v>
+      </c>
+      <c r="E26">
+        <v>0.63</v>
+      </c>
+      <c r="F26">
+        <v>0.85</v>
+      </c>
+      <c r="G26">
+        <v>0.76</v>
+      </c>
+      <c r="H26">
         <v>0.8</v>
-      </c>
-      <c r="D26">
-        <v>0.91</v>
-      </c>
-      <c r="E26">
-        <v>0.71</v>
-      </c>
-      <c r="F26">
-        <v>0.8049844718999244</v>
-      </c>
-      <c r="G26">
-        <v>0.8038034585643433</v>
-      </c>
-      <c r="H26">
-        <v>0.804393748486244</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="B27">
+        <v>0.9</v>
+      </c>
+      <c r="C27">
         <v>0.87</v>
       </c>
-      <c r="C27">
-        <v>0.83</v>
-      </c>
       <c r="D27">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E27">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F27">
-        <v>0.8497646733066749</v>
+        <v>0.88</v>
       </c>
       <c r="G27">
-        <v>0.7613146524269713</v>
+        <v>0.73</v>
       </c>
       <c r="H27">
-        <v>0.8043247459224353</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="B28">
-        <v>0.9</v>
+        <v>0.78</v>
       </c>
       <c r="C28">
-        <v>0.87</v>
+        <v>0.78</v>
       </c>
       <c r="D28">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="E28">
-        <v>0.5600000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="F28">
-        <v>0.8848728722251575</v>
+        <v>0.78</v>
       </c>
       <c r="G28">
-        <v>0.7255342858886822</v>
+        <v>0.83</v>
       </c>
       <c r="H28">
-        <v>0.8012525241471298</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -5243,13 +5243,13 @@
         <v>0.93</v>
       </c>
       <c r="F29">
-        <v>0.6948381106416084</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G29">
-        <v>0.9097801932335086</v>
+        <v>0.91</v>
       </c>
       <c r="H29">
-        <v>0.7950785813776702</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -5257,25 +5257,25 @@
         <v>101</v>
       </c>
       <c r="B30">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="C30">
-        <v>0.73</v>
+        <v>0.83</v>
       </c>
       <c r="D30">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="E30">
-        <v>0.84</v>
+        <v>0.67</v>
       </c>
       <c r="F30">
-        <v>0.7199305522062527</v>
+        <v>0.78</v>
       </c>
       <c r="G30">
-        <v>0.8694826047713663</v>
+        <v>0.8</v>
       </c>
       <c r="H30">
-        <v>0.7911808211697126</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -5283,25 +5283,25 @@
         <v>102</v>
       </c>
       <c r="B31">
+        <v>0.71</v>
+      </c>
+      <c r="C31">
         <v>0.73</v>
       </c>
-      <c r="C31">
-        <v>0.83</v>
-      </c>
       <c r="D31">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E31">
-        <v>0.67</v>
+        <v>0.84</v>
       </c>
       <c r="F31">
-        <v>0.7783957862167549</v>
+        <v>0.72</v>
       </c>
       <c r="G31">
-        <v>0.7978095010715277</v>
+        <v>0.87</v>
       </c>
       <c r="H31">
-        <v>0.788042862944503</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -5309,25 +5309,25 @@
         <v>103</v>
       </c>
       <c r="B32">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
       <c r="C32">
+        <v>0.76</v>
+      </c>
+      <c r="D32">
+        <v>0.91</v>
+      </c>
+      <c r="E32">
+        <v>0.72</v>
+      </c>
+      <c r="F32">
+        <v>0.76</v>
+      </c>
+      <c r="G32">
         <v>0.8100000000000001</v>
       </c>
-      <c r="D32">
-        <v>0.92</v>
-      </c>
-      <c r="E32">
-        <v>0.63</v>
-      </c>
-      <c r="F32">
-        <v>0.8149846624323676</v>
-      </c>
-      <c r="G32">
-        <v>0.7613146524269713</v>
-      </c>
       <c r="H32">
-        <v>0.7876926843719004</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -5335,25 +5335,25 @@
         <v>104</v>
       </c>
       <c r="B33">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="C33">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="D33">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="E33">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="F33">
-        <v>0.7349829930005184</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G33">
-        <v>0.8432081593533118</v>
+        <v>0.88</v>
       </c>
       <c r="H33">
-        <v>0.7872379924037934</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -5361,25 +5361,25 @@
         <v>105</v>
       </c>
       <c r="B34">
+        <v>0.82</v>
+      </c>
+      <c r="C34">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D34">
+        <v>0.92</v>
+      </c>
+      <c r="E34">
+        <v>0.63</v>
+      </c>
+      <c r="F34">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G34">
         <v>0.76</v>
       </c>
-      <c r="C34">
-        <v>0.76</v>
-      </c>
-      <c r="D34">
-        <v>0.91</v>
-      </c>
-      <c r="E34">
-        <v>0.72</v>
-      </c>
-      <c r="F34">
-        <v>0.76</v>
-      </c>
-      <c r="G34">
-        <v>0.8094442537939225</v>
-      </c>
       <c r="H34">
-        <v>0.7843326034810622</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -5387,25 +5387,25 @@
         <v>106</v>
       </c>
       <c r="B35">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="C35">
-        <v>0.71</v>
+        <v>0.74</v>
       </c>
       <c r="D35">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="E35">
-        <v>0.88</v>
+        <v>0.79</v>
       </c>
       <c r="F35">
-        <v>0.6948381106416084</v>
+        <v>0.73</v>
       </c>
       <c r="G35">
-        <v>0.8849858755935035</v>
+        <v>0.84</v>
       </c>
       <c r="H35">
-        <v>0.784169569507705</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -5425,44 +5425,44 @@
         <v>0.76</v>
       </c>
       <c r="F36">
-        <v>0.7349829930005184</v>
+        <v>0.73</v>
       </c>
       <c r="G36">
-        <v>0.8270429251254133</v>
+        <v>0.83</v>
       </c>
       <c r="H36">
-        <v>0.7796553626113143</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="B37">
-        <v>0.78</v>
+        <v>0.64</v>
       </c>
       <c r="C37">
-        <v>0.78</v>
+        <v>0.68</v>
       </c>
       <c r="D37">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="E37">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="F37">
-        <v>0.78</v>
+        <v>0.66</v>
       </c>
       <c r="G37">
-        <v>0.7690903718029501</v>
+        <v>0.89</v>
       </c>
       <c r="H37">
-        <v>0.7745259776187634</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B38">
         <v>0.68</v>
@@ -5477,39 +5477,39 @@
         <v>0.83</v>
       </c>
       <c r="F38">
-        <v>0.6948381106416084</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G38">
-        <v>0.8594765849050223</v>
+        <v>0.86</v>
       </c>
       <c r="H38">
-        <v>0.7727852783251682</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="B39">
-        <v>0.64</v>
+        <v>0.78</v>
       </c>
       <c r="C39">
-        <v>0.68</v>
+        <v>0.78</v>
       </c>
       <c r="D39">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="E39">
-        <v>0.9</v>
+        <v>0.65</v>
       </c>
       <c r="F39">
-        <v>0.6596969000988258</v>
+        <v>0.78</v>
       </c>
       <c r="G39">
-        <v>0.8899438184514796</v>
+        <v>0.77</v>
       </c>
       <c r="H39">
-        <v>0.7662200586610568</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -5517,25 +5517,25 @@
         <v>110</v>
       </c>
       <c r="B40">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="C40">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="D40">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="E40">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="F40">
-        <v>0.7849840762716146</v>
+        <v>0.76</v>
       </c>
       <c r="G40">
-        <v>0.7389181280764466</v>
+        <v>0.76</v>
       </c>
       <c r="H40">
-        <v>0.7616028914128675</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -5543,25 +5543,25 @@
         <v>111</v>
       </c>
       <c r="B41">
+        <v>0.79</v>
+      </c>
+      <c r="C41">
+        <v>0.78</v>
+      </c>
+      <c r="D41">
+        <v>0.91</v>
+      </c>
+      <c r="E41">
+        <v>0.6</v>
+      </c>
+      <c r="F41">
+        <v>0.78</v>
+      </c>
+      <c r="G41">
+        <v>0.74</v>
+      </c>
+      <c r="H41">
         <v>0.76</v>
-      </c>
-      <c r="C41">
-        <v>0.76</v>
-      </c>
-      <c r="D41">
-        <v>0.9</v>
-      </c>
-      <c r="E41">
-        <v>0.64</v>
-      </c>
-      <c r="F41">
-        <v>0.76</v>
-      </c>
-      <c r="G41">
-        <v>0.7589466384404111</v>
-      </c>
-      <c r="H41">
-        <v>0.7594731365984662</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -5581,13 +5581,13 @@
         <v>0.53</v>
       </c>
       <c r="F42">
-        <v>0.7930952023559341</v>
+        <v>0.79</v>
       </c>
       <c r="G42">
-        <v>0.7133021800050804</v>
+        <v>0.71</v>
       </c>
       <c r="H42">
-        <v>0.7521413010811586</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -5607,13 +5607,13 @@
         <v>0.9</v>
       </c>
       <c r="F43">
-        <v>0.6345076831686123</v>
+        <v>0.63</v>
       </c>
       <c r="G43">
-        <v>0.8899438184514796</v>
+        <v>0.89</v>
       </c>
       <c r="H43">
-        <v>0.7514493931036716</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -5621,25 +5621,25 @@
         <v>114</v>
       </c>
       <c r="B44">
+        <v>0.59</v>
+      </c>
+      <c r="C44">
+        <v>0.64</v>
+      </c>
+      <c r="D44">
+        <v>0.87</v>
+      </c>
+      <c r="E44">
+        <v>0.93</v>
+      </c>
+      <c r="F44">
         <v>0.61</v>
       </c>
-      <c r="C44">
-        <v>0.65</v>
-      </c>
-      <c r="D44">
-        <v>0.88</v>
-      </c>
-      <c r="E44">
-        <v>0.88</v>
-      </c>
-      <c r="F44">
-        <v>0.6296824596572467</v>
-      </c>
       <c r="G44">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="H44">
-        <v>0.744392748821734</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -5659,13 +5659,13 @@
         <v>0.98</v>
       </c>
       <c r="F45">
-        <v>0.5992495306631453</v>
+        <v>0.6</v>
       </c>
       <c r="G45">
-        <v>0.9233634170791044</v>
+        <v>0.92</v>
       </c>
       <c r="H45">
-        <v>0.7438582488056252</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -5673,25 +5673,25 @@
         <v>116</v>
       </c>
       <c r="B46">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="C46">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="D46">
         <v>0.87</v>
       </c>
       <c r="E46">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F46">
-        <v>0.6144916598294886</v>
+        <v>0.6</v>
       </c>
       <c r="G46">
-        <v>0.899499861033897</v>
+        <v>0.91</v>
       </c>
       <c r="H46">
-        <v>0.7434616080357571</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -5699,25 +5699,25 @@
         <v>117</v>
       </c>
       <c r="B47">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="C47">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="D47">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="E47">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F47">
-        <v>0.6144916598294886</v>
+        <v>0.63</v>
       </c>
       <c r="G47">
-        <v>0.8946507698538017</v>
+        <v>0.88</v>
       </c>
       <c r="H47">
-        <v>0.7414549457217158</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -5737,13 +5737,13 @@
         <v>0.61</v>
       </c>
       <c r="F48">
-        <v>0.7399324293474371</v>
+        <v>0.74</v>
       </c>
       <c r="G48">
-        <v>0.7409453421137082</v>
+        <v>0.74</v>
       </c>
       <c r="H48">
-        <v>0.740438712523774</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -5751,108 +5751,108 @@
         <v>119</v>
       </c>
       <c r="B49">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="C49">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="D49">
         <v>0.87</v>
       </c>
       <c r="E49">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F49">
-        <v>0.5992495306631453</v>
+        <v>0.61</v>
       </c>
       <c r="G49">
-        <v>0.913892772703669</v>
+        <v>0.89</v>
       </c>
       <c r="H49">
-        <v>0.7400336580988153</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="B50">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="C50">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="D50">
         <v>0.89</v>
       </c>
       <c r="E50">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="F50">
-        <v>0.6948381106416084</v>
+        <v>0.68</v>
       </c>
       <c r="G50">
-        <v>0.7722046360907192</v>
+        <v>0.78</v>
       </c>
       <c r="H50">
-        <v>0.7325006555423457</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="B51">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="C51">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="D51">
         <v>0.89</v>
       </c>
       <c r="E51">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="F51">
-        <v>0.6797058187186571</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G51">
-        <v>0.7779460135510691</v>
+        <v>0.77</v>
       </c>
       <c r="H51">
-        <v>0.7271687782486573</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="B52">
-        <v>0.66</v>
+        <v>0.6</v>
       </c>
       <c r="C52">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="D52">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="E52">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="F52">
-        <v>0.6748333127521196</v>
+        <v>0.62</v>
       </c>
       <c r="G52">
-        <v>0.7722046360907192</v>
+        <v>0.83</v>
       </c>
       <c r="H52">
-        <v>0.7218790845395405</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B53">
         <v>0.7</v>
@@ -5867,18 +5867,18 @@
         <v>0.6</v>
       </c>
       <c r="F53">
-        <v>0.7099295739719539</v>
+        <v>0.71</v>
       </c>
       <c r="G53">
-        <v>0.7307530362578044</v>
+        <v>0.73</v>
       </c>
       <c r="H53">
-        <v>0.7202660561967466</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B54">
         <v>0.75</v>
@@ -5896,15 +5896,15 @@
         <v>0.75</v>
       </c>
       <c r="G54">
-        <v>0.6906518659932803</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H54">
-        <v>0.7197144569167415</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B55">
         <v>0.6</v>
@@ -5913,45 +5913,45 @@
         <v>0.65</v>
       </c>
       <c r="D55">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="E55">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="F55">
-        <v>0.6244997998398398</v>
+        <v>0.62</v>
       </c>
       <c r="G55">
-        <v>0.8290355842785037</v>
+        <v>0.83</v>
       </c>
       <c r="H55">
-        <v>0.7195363482424152</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="B56">
-        <v>0.6</v>
+        <v>0.66</v>
       </c>
       <c r="C56">
-        <v>0.65</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D56">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="E56">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="F56">
-        <v>0.6244997998398398</v>
+        <v>0.67</v>
       </c>
       <c r="G56">
-        <v>0.8284926070883192</v>
+        <v>0.77</v>
       </c>
       <c r="H56">
-        <v>0.7193006793375372</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -5971,65 +5971,65 @@
         <v>0.67</v>
       </c>
       <c r="F57">
-        <v>0.6697014260101287</v>
+        <v>0.67</v>
       </c>
       <c r="G57">
-        <v>0.7678541528180987</v>
+        <v>0.77</v>
       </c>
       <c r="H57">
-        <v>0.7171004260981023</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="B58">
-        <v>0.55</v>
+        <v>0.67</v>
       </c>
       <c r="C58">
-        <v>0.61</v>
+        <v>0.7</v>
       </c>
       <c r="D58">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="E58">
-        <v>0.9</v>
+        <v>0.62</v>
       </c>
       <c r="F58">
-        <v>0.5792236183029832</v>
+        <v>0.68</v>
       </c>
       <c r="G58">
-        <v>0.8797726979169108</v>
+        <v>0.74</v>
       </c>
       <c r="H58">
-        <v>0.7138523134175657</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="B59">
-        <v>0.67</v>
+        <v>0.55</v>
       </c>
       <c r="C59">
-        <v>0.7</v>
+        <v>0.61</v>
       </c>
       <c r="D59">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="E59">
-        <v>0.62</v>
+        <v>0.9</v>
       </c>
       <c r="F59">
-        <v>0.6848357467305572</v>
+        <v>0.58</v>
       </c>
       <c r="G59">
-        <v>0.7428324171709255</v>
+        <v>0.88</v>
       </c>
       <c r="H59">
-        <v>0.7132448339167383</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -6049,13 +6049,13 @@
         <v>0.93</v>
       </c>
       <c r="F60">
-        <v>0.5639148871948674</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G60">
-        <v>0.8943153806124549</v>
+        <v>0.89</v>
       </c>
       <c r="H60">
-        <v>0.7101533334250479</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -6075,13 +6075,13 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>0.5438749856354859</v>
+        <v>0.54</v>
       </c>
       <c r="G61">
-        <v>0.9219544457292888</v>
+        <v>0.92</v>
       </c>
       <c r="H61">
-        <v>0.7081157821483639</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -6089,25 +6089,25 @@
         <v>129</v>
       </c>
       <c r="B62">
-        <v>0.51</v>
+        <v>0.71</v>
       </c>
       <c r="C62">
-        <v>0.58</v>
+        <v>0.73</v>
       </c>
       <c r="D62">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="E62">
-        <v>0.98</v>
+        <v>0.52</v>
       </c>
       <c r="F62">
-        <v>0.5438749856354859</v>
+        <v>0.72</v>
       </c>
       <c r="G62">
-        <v>0.9126883367283708</v>
+        <v>0.68</v>
       </c>
       <c r="H62">
-        <v>0.7045483347704529</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -6115,25 +6115,25 @@
         <v>130</v>
       </c>
       <c r="B63">
+        <v>0.5</v>
+      </c>
+      <c r="C63">
+        <v>0.57</v>
+      </c>
+      <c r="D63">
+        <v>0.85</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
         <v>0.53</v>
       </c>
-      <c r="C63">
-        <v>0.6</v>
-      </c>
-      <c r="D63">
-        <v>0.86</v>
-      </c>
-      <c r="E63">
-        <v>0.89</v>
-      </c>
-      <c r="F63">
-        <v>0.5639148871948674</v>
-      </c>
       <c r="G63">
-        <v>0.8748714191239761</v>
+        <v>0.92</v>
       </c>
       <c r="H63">
-        <v>0.7023909293444147</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -6141,25 +6141,25 @@
         <v>131</v>
       </c>
       <c r="B64">
-        <v>0.71</v>
+        <v>0.51</v>
       </c>
       <c r="C64">
-        <v>0.73</v>
+        <v>0.58</v>
       </c>
       <c r="D64">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="E64">
-        <v>0.52</v>
+        <v>0.98</v>
       </c>
       <c r="F64">
-        <v>0.7199305522062527</v>
+        <v>0.54</v>
       </c>
       <c r="G64">
-        <v>0.6841052550594828</v>
+        <v>0.91</v>
       </c>
       <c r="H64">
-        <v>0.7017893373671139</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -6167,25 +6167,25 @@
         <v>132</v>
       </c>
       <c r="B65">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="C65">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="D65">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="F65">
-        <v>0.5338539126015656</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G65">
-        <v>0.9219544457292888</v>
+        <v>0.87</v>
       </c>
       <c r="H65">
-        <v>0.7015618205781929</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -6205,13 +6205,13 @@
         <v>0.76</v>
       </c>
       <c r="F66">
-        <v>0.6044832503882965</v>
+        <v>0.6</v>
       </c>
       <c r="G66">
-        <v>0.8131420540102449</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H66">
-        <v>0.7010925415631867</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -6231,44 +6231,44 @@
         <v>0.87</v>
       </c>
       <c r="F67">
-        <v>0.5639148871948674</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G67">
-        <v>0.8649855490122363</v>
+        <v>0.86</v>
       </c>
       <c r="H67">
-        <v>0.6984112171897197</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="B68">
+        <v>0.53</v>
+      </c>
+      <c r="C68">
+        <v>0.59</v>
+      </c>
+      <c r="D68">
+        <v>0.86</v>
+      </c>
+      <c r="E68">
+        <v>0.82</v>
+      </c>
+      <c r="F68">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G68">
+        <v>0.84</v>
+      </c>
+      <c r="H68">
         <v>0.6899999999999999</v>
-      </c>
-      <c r="C68">
-        <v>0.64</v>
-      </c>
-      <c r="D68">
-        <v>0.84</v>
-      </c>
-      <c r="E68">
-        <v>0.64</v>
-      </c>
-      <c r="F68">
-        <v>0.664529909033446</v>
-      </c>
-      <c r="G68">
-        <v>0.7332121111929344</v>
-      </c>
-      <c r="H68">
-        <v>0.6980267742381101</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B69">
         <v>0.58</v>
@@ -6283,18 +6283,18 @@
         <v>0.73</v>
       </c>
       <c r="F69">
-        <v>0.6044832503882965</v>
+        <v>0.6</v>
       </c>
       <c r="G69">
-        <v>0.7969316156358712</v>
+        <v>0.8</v>
       </c>
       <c r="H69">
-        <v>0.6940690263632054</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B70">
         <v>0.55</v>
@@ -6309,65 +6309,65 @@
         <v>0.8</v>
       </c>
       <c r="F70">
-        <v>0.5792236183029832</v>
+        <v>0.58</v>
       </c>
       <c r="G70">
-        <v>0.8294576541331089</v>
+        <v>0.83</v>
       </c>
       <c r="H70">
-        <v>0.693138848756931</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B71">
-        <v>0.57</v>
+        <v>0.64</v>
       </c>
       <c r="C71">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
       <c r="D71">
         <v>0.88</v>
       </c>
       <c r="E71">
-        <v>0.71</v>
+        <v>0.59</v>
       </c>
       <c r="F71">
-        <v>0.60398675482166</v>
+        <v>0.66</v>
       </c>
       <c r="G71">
-        <v>0.7904429138147802</v>
+        <v>0.72</v>
       </c>
       <c r="H71">
-        <v>0.6909537252137556</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="B72">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C72">
         <v>0.64</v>
       </c>
-      <c r="C72">
-        <v>0.68</v>
-      </c>
       <c r="D72">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="E72">
-        <v>0.59</v>
+        <v>0.64</v>
       </c>
       <c r="F72">
-        <v>0.6596969000988258</v>
+        <v>0.66</v>
       </c>
       <c r="G72">
-        <v>0.7205553413860728</v>
+        <v>0.73</v>
       </c>
       <c r="H72">
-        <v>0.6894549478117068</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -6375,129 +6375,129 @@
         <v>139</v>
       </c>
       <c r="B73">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="C73">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="D73">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="E73">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="F73">
-        <v>0.6848357467305572</v>
+        <v>0.6</v>
       </c>
       <c r="G73">
-        <v>0.6932532004974806</v>
+        <v>0.79</v>
       </c>
       <c r="H73">
-        <v>0.6890316199101757</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="B74">
-        <v>0.65</v>
+        <v>0.57</v>
       </c>
       <c r="C74">
+        <v>0.62</v>
+      </c>
+      <c r="D74">
+        <v>0.87</v>
+      </c>
+      <c r="E74">
+        <v>0.72</v>
+      </c>
+      <c r="F74">
+        <v>0.59</v>
+      </c>
+      <c r="G74">
+        <v>0.79</v>
+      </c>
+      <c r="H74">
         <v>0.68</v>
-      </c>
-      <c r="D74">
-        <v>0.88</v>
-      </c>
-      <c r="E74">
-        <v>0.57</v>
-      </c>
-      <c r="F74">
-        <v>0.6648308055437865</v>
-      </c>
-      <c r="G74">
-        <v>0.7082372483850309</v>
-      </c>
-      <c r="H74">
-        <v>0.686190892070082</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B75">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="C75">
-        <v>0.62</v>
+        <v>0.52</v>
       </c>
       <c r="D75">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
       <c r="E75">
-        <v>0.72</v>
+        <v>0.97</v>
       </c>
       <c r="F75">
-        <v>0.594474557908074</v>
+        <v>0.52</v>
       </c>
       <c r="G75">
-        <v>0.7914543574963752</v>
+        <v>0.88</v>
       </c>
       <c r="H75">
-        <v>0.6859296460112192</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="B76">
-        <v>0.53</v>
+        <v>0.63</v>
       </c>
       <c r="C76">
-        <v>0.59</v>
+        <v>0.67</v>
       </c>
       <c r="D76">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="E76">
-        <v>0.82</v>
+        <v>0.58</v>
       </c>
       <c r="F76">
-        <v>0.5591958512006325</v>
+        <v>0.65</v>
       </c>
       <c r="G76">
-        <v>0.8397618710086806</v>
+        <v>0.71</v>
       </c>
       <c r="H76">
-        <v>0.6852673596958598</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B77">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="C77">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="D77">
         <v>0.88</v>
       </c>
       <c r="E77">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="F77">
-        <v>0.6496922348312315</v>
+        <v>0.66</v>
       </c>
       <c r="G77">
-        <v>0.71442284397967</v>
+        <v>0.71</v>
       </c>
       <c r="H77">
-        <v>0.6812892000609111</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -6505,25 +6505,25 @@
         <v>142</v>
       </c>
       <c r="B78">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="C78">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="D78">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="E78">
-        <v>0.7</v>
+        <v>0.54</v>
       </c>
       <c r="F78">
-        <v>0.594474557908074</v>
+        <v>0.68</v>
       </c>
       <c r="G78">
-        <v>0.7803845206050668</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H78">
-        <v>0.6811158072493997</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -6531,25 +6531,25 @@
         <v>143</v>
       </c>
       <c r="B79">
-        <v>0.53</v>
+        <v>0.57</v>
       </c>
       <c r="C79">
-        <v>0.52</v>
+        <v>0.62</v>
       </c>
       <c r="D79">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="E79">
-        <v>0.97</v>
+        <v>0.7</v>
       </c>
       <c r="F79">
-        <v>0.5249761899362675</v>
+        <v>0.59</v>
       </c>
       <c r="G79">
-        <v>0.8809086218218096</v>
+        <v>0.78</v>
       </c>
       <c r="H79">
-        <v>0.6800412134319669</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -6557,25 +6557,25 @@
         <v>144</v>
       </c>
       <c r="B80">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
       <c r="C80">
+        <v>0.61</v>
+      </c>
+      <c r="D80">
+        <v>0.86</v>
+      </c>
+      <c r="E80">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F80">
         <v>0.58</v>
       </c>
-      <c r="D80">
-        <v>0.85</v>
-      </c>
-      <c r="E80">
-        <v>0.84</v>
-      </c>
-      <c r="F80">
-        <v>0.5438749856354859</v>
-      </c>
       <c r="G80">
-        <v>0.8449852069711044</v>
+        <v>0.77</v>
       </c>
       <c r="H80">
-        <v>0.6779132077955167</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -6595,13 +6595,13 @@
         <v>0.77</v>
       </c>
       <c r="F81">
-        <v>0.574978260458602</v>
+        <v>0.57</v>
       </c>
       <c r="G81">
-        <v>0.7946068210127571</v>
+        <v>0.79</v>
       </c>
       <c r="H81">
-        <v>0.6759302091891254</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -6609,25 +6609,25 @@
         <v>146</v>
       </c>
       <c r="B82">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
       <c r="C82">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="D82">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="E82">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="F82">
-        <v>0.5792236183029832</v>
+        <v>0.54</v>
       </c>
       <c r="G82">
-        <v>0.7703246069028302</v>
+        <v>0.84</v>
       </c>
       <c r="H82">
-        <v>0.6679747046693314</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -6647,13 +6647,13 @@
         <v>0.79</v>
       </c>
       <c r="F83">
-        <v>0.5338539126015656</v>
+        <v>0.53</v>
       </c>
       <c r="G83">
-        <v>0.8194510357550352</v>
+        <v>0.82</v>
       </c>
       <c r="H83">
-        <v>0.6614129887016363</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -6673,13 +6673,13 @@
         <v>0.52</v>
       </c>
       <c r="F84">
-        <v>0.6445153217728807</v>
+        <v>0.64</v>
       </c>
       <c r="G84">
-        <v>0.6764613810115105</v>
+        <v>0.68</v>
       </c>
       <c r="H84">
-        <v>0.6602951799381553</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -6699,13 +6699,13 @@
         <v>0.51</v>
       </c>
       <c r="F85">
-        <v>0.6396874236687791</v>
+        <v>0.64</v>
       </c>
       <c r="G85">
-        <v>0.6699253689777691</v>
+        <v>0.67</v>
       </c>
       <c r="H85">
-        <v>0.6546318303686014</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -6725,44 +6725,44 @@
         <v>0.68</v>
       </c>
       <c r="F86">
-        <v>0.5591958512006325</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G86">
-        <v>0.7647221717722065</v>
+        <v>0.76</v>
       </c>
       <c r="H86">
-        <v>0.6539338389899665</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="B87">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="C87">
+        <v>0.6</v>
+      </c>
+      <c r="D87">
+        <v>0.86</v>
+      </c>
+      <c r="E87">
+        <v>0.62</v>
+      </c>
+      <c r="F87">
         <v>0.57</v>
       </c>
-      <c r="D87">
-        <v>0.85</v>
-      </c>
-      <c r="E87">
-        <v>0.75</v>
-      </c>
-      <c r="F87">
-        <v>0.5338539126015656</v>
-      </c>
       <c r="G87">
-        <v>0.7984359711335656</v>
+        <v>0.73</v>
       </c>
       <c r="H87">
-        <v>0.6528768391905817</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B88">
         <v>0.5</v>
@@ -6777,18 +6777,18 @@
         <v>0.75</v>
       </c>
       <c r="F88">
-        <v>0.5338539126015656</v>
+        <v>0.53</v>
       </c>
       <c r="G88">
-        <v>0.7984359711335656</v>
+        <v>0.8</v>
       </c>
       <c r="H88">
-        <v>0.6528768391905817</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B89">
         <v>0.5</v>
@@ -6800,47 +6800,47 @@
         <v>0.85</v>
       </c>
       <c r="E89">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="F89">
-        <v>0.5338539126015656</v>
+        <v>0.53</v>
       </c>
       <c r="G89">
-        <v>0.7823042886243179</v>
+        <v>0.8</v>
       </c>
       <c r="H89">
-        <v>0.646247789417555</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B90">
         <v>0.55</v>
       </c>
       <c r="C90">
+        <v>0.61</v>
+      </c>
+      <c r="D90">
+        <v>0.86</v>
+      </c>
+      <c r="E90">
         <v>0.58</v>
       </c>
-      <c r="D90">
-        <v>0.84</v>
-      </c>
-      <c r="E90">
-        <v>0.65</v>
-      </c>
       <c r="F90">
-        <v>0.5648008498577175</v>
+        <v>0.58</v>
       </c>
       <c r="G90">
-        <v>0.7389181280764466</v>
+        <v>0.71</v>
       </c>
       <c r="H90">
-        <v>0.6460198036537663</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B91">
         <v>0.6</v>
@@ -6855,47 +6855,47 @@
         <v>0.51</v>
       </c>
       <c r="F91">
-        <v>0.6244997998398398</v>
+        <v>0.62</v>
       </c>
       <c r="G91">
-        <v>0.6661080993352355</v>
+        <v>0.67</v>
       </c>
       <c r="H91">
-        <v>0.6449685067556018</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="B92">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="C92">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="D92">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="E92">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="F92">
-        <v>0.5692099788303083</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G92">
-        <v>0.7302054505411474</v>
+        <v>0.74</v>
       </c>
       <c r="H92">
-        <v>0.6447016589433459</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="B93">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="C93">
         <v>0.6</v>
@@ -6904,198 +6904,198 @@
         <v>0.86</v>
       </c>
       <c r="E93">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="F93">
-        <v>0.5639148871948674</v>
+        <v>0.57</v>
       </c>
       <c r="G93">
-        <v>0.7360706487831178</v>
+        <v>0.72</v>
       </c>
       <c r="H93">
-        <v>0.6442679542519437</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="B94">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="C94">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="D94">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="E94">
-        <v>0.57</v>
+        <v>0.72</v>
       </c>
       <c r="F94">
-        <v>0.5892367945062494</v>
+        <v>0.53</v>
       </c>
       <c r="G94">
-        <v>0.7042016756583301</v>
+        <v>0.78</v>
       </c>
       <c r="H94">
-        <v>0.6441595594655443</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="B95">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="C95">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D95">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="E95">
-        <v>0.54</v>
+        <v>0.7</v>
       </c>
       <c r="F95">
-        <v>0.6044832503882965</v>
+        <v>0.53</v>
       </c>
       <c r="G95">
-        <v>0.6854195795277518</v>
+        <v>0.77</v>
       </c>
       <c r="H95">
-        <v>0.643680553778592</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B96">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
       <c r="C96">
+        <v>0.6</v>
+      </c>
+      <c r="D96">
+        <v>0.86</v>
+      </c>
+      <c r="E96">
         <v>0.63</v>
       </c>
-      <c r="D96">
-        <v>0.87</v>
-      </c>
-      <c r="E96">
-        <v>0.54</v>
-      </c>
       <c r="F96">
-        <v>0.6044832503882965</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G96">
-        <v>0.6854195795277518</v>
+        <v>0.74</v>
       </c>
       <c r="H96">
-        <v>0.643680553778592</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B97">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="C97">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="D97">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="E97">
-        <v>0.59</v>
+        <v>0.54</v>
       </c>
       <c r="F97">
-        <v>0.5792236183029832</v>
+        <v>0.6</v>
       </c>
       <c r="G97">
-        <v>0.712320152740325</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H97">
-        <v>0.6423337576839511</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B98">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="C98">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="D98">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="E98">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="F98">
-        <v>0.5792236183029832</v>
+        <v>0.6</v>
       </c>
       <c r="G98">
-        <v>0.7062577433203829</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H98">
-        <v>0.6395945321377691</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B99">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C99">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="D99">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="E99">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="F99">
-        <v>0.5692099788303083</v>
+        <v>0.59</v>
       </c>
       <c r="G99">
-        <v>0.7183313998427189</v>
+        <v>0.7</v>
       </c>
       <c r="H99">
-        <v>0.6394383480036365</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="B100">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="C100">
-        <v>0.5600000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="D100">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="E100">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="F100">
-        <v>0.5291502622129182</v>
+        <v>0.58</v>
       </c>
       <c r="G100">
-        <v>0.7668115805072325</v>
+        <v>0.71</v>
       </c>
       <c r="H100">
-        <v>0.6369917965667252</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -7115,13 +7115,13 @@
         <v>0.51</v>
       </c>
       <c r="F101">
-        <v>0.6048140210014976</v>
+        <v>0.6</v>
       </c>
       <c r="G101">
-        <v>0.6584071688552608</v>
+        <v>0.66</v>
       </c>
       <c r="H101">
-        <v>0.631041906097814</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -7129,59 +7129,59 @@
         <v>160</v>
       </c>
       <c r="B102">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="C102">
-        <v>0.57</v>
+        <v>0.62</v>
       </c>
       <c r="D102">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="E102">
-        <v>0.65</v>
+        <v>0.51</v>
       </c>
       <c r="F102">
-        <v>0.5338539126015656</v>
+        <v>0.59</v>
       </c>
       <c r="G102">
-        <v>0.7433034373659253</v>
+        <v>0.67</v>
       </c>
       <c r="H102">
-        <v>0.6299328918924554</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="B103">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="C103">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="D103">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="E103">
-        <v>0.52</v>
+        <v>0.65</v>
       </c>
       <c r="F103">
-        <v>0.5892367945062494</v>
+        <v>0.53</v>
       </c>
       <c r="G103">
-        <v>0.6726068688320095</v>
+        <v>0.74</v>
       </c>
       <c r="H103">
-        <v>0.6295432593185782</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>161</v>
+        <v>54</v>
       </c>
       <c r="B104">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C104">
         <v>0.62</v>
@@ -7190,146 +7190,146 @@
         <v>0.87</v>
       </c>
       <c r="E104">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="F104">
-        <v>0.594474557908074</v>
+        <v>0.59</v>
       </c>
       <c r="G104">
-        <v>0.6661080993352355</v>
+        <v>0.67</v>
       </c>
       <c r="H104">
-        <v>0.6292728485095329</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B105">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="C105">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="D105">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="E105">
-        <v>0.61</v>
+        <v>0.55</v>
       </c>
       <c r="F105">
-        <v>0.5438749856354859</v>
+        <v>0.57</v>
       </c>
       <c r="G105">
-        <v>0.7200694410957876</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H105">
-        <v>0.6258016913787656</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="B106">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="C106">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="D106">
         <v>0.86</v>
       </c>
       <c r="E106">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="F106">
-        <v>0.5692099788303083</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G106">
-        <v>0.687749954561976</v>
+        <v>0.68</v>
       </c>
       <c r="H106">
-        <v>0.6256789408928255</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>162</v>
+        <v>67</v>
       </c>
       <c r="B107">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="C107">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="D107">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="E107">
-        <v>0.57</v>
+        <v>0.61</v>
       </c>
       <c r="F107">
-        <v>0.5538952969650491</v>
+        <v>0.54</v>
       </c>
       <c r="G107">
-        <v>0.7001428425685718</v>
+        <v>0.72</v>
       </c>
       <c r="H107">
-        <v>0.6227405781723822</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="B108">
-        <v>0.5600000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="C108">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="D108">
         <v>0.86</v>
       </c>
       <c r="E108">
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c r="F108">
-        <v>0.5844655678480983</v>
+        <v>0.55</v>
       </c>
       <c r="G108">
-        <v>0.6622688275919379</v>
+        <v>0.7</v>
       </c>
       <c r="H108">
-        <v>0.6221521730144615</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="B109">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C109">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="D109">
         <v>0.86</v>
       </c>
       <c r="E109">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="F109">
-        <v>0.5591958512006325</v>
+        <v>0.58</v>
       </c>
       <c r="G109">
-        <v>0.6814690014960328</v>
+        <v>0.66</v>
       </c>
       <c r="H109">
-        <v>0.6173124317219112</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -7349,13 +7349,13 @@
         <v>0.58</v>
       </c>
       <c r="F110">
-        <v>0.5338539126015656</v>
+        <v>0.53</v>
       </c>
       <c r="G110">
-        <v>0.7021395872616782</v>
+        <v>0.7</v>
       </c>
       <c r="H110">
-        <v>0.6122417544173995</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -7375,65 +7375,65 @@
         <v>0.5</v>
       </c>
       <c r="F111">
-        <v>0.5639148871948674</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G111">
-        <v>0.6557438524302001</v>
+        <v>0.66</v>
       </c>
       <c r="H111">
-        <v>0.6080984464475337</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="B112">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="C112">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="D112">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="E112">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="F112">
-        <v>0.5538952969650491</v>
+        <v>0.53</v>
       </c>
       <c r="G112">
-        <v>0.6557438524302001</v>
+        <v>0.67</v>
       </c>
       <c r="H112">
-        <v>0.6026719139588562</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="B113">
+        <v>0.52</v>
+      </c>
+      <c r="C113">
+        <v>0.59</v>
+      </c>
+      <c r="D113">
+        <v>0.86</v>
+      </c>
+      <c r="E113">
         <v>0.5</v>
       </c>
-      <c r="C113">
-        <v>0.57</v>
-      </c>
-      <c r="D113">
-        <v>0.85</v>
-      </c>
-      <c r="E113">
-        <v>0.53</v>
-      </c>
       <c r="F113">
-        <v>0.5338539126015656</v>
+        <v>0.55</v>
       </c>
       <c r="G113">
-        <v>0.6711929677819933</v>
+        <v>0.66</v>
       </c>
       <c r="H113">
-        <v>0.5985975208444099</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -7453,13 +7453,13 @@
         <v>0.5</v>
       </c>
       <c r="F114">
-        <v>0.5338539126015656</v>
+        <v>0.53</v>
       </c>
       <c r="G114">
-        <v>0.6519202405202649</v>
+        <v>0.65</v>
       </c>
       <c r="H114">
-        <v>0.589940820003072</v>
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>
@@ -7503,7 +7503,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2">
         <v>0.96</v>
@@ -7518,18 +7518,18 @@
         <v>0.97</v>
       </c>
       <c r="F2">
-        <v>0.9699484522385713</v>
+        <v>0.97</v>
       </c>
       <c r="G2">
-        <v>0.9848857801796105</v>
+        <v>0.98</v>
       </c>
       <c r="H2">
-        <v>0.9773885809221381</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B3">
         <v>0.9399999999999999</v>
@@ -7544,13 +7544,13 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.8885943956609225</v>
+        <v>0.89</v>
       </c>
       <c r="G3">
-        <v>0.9327379053088815</v>
+        <v>0.93</v>
       </c>
       <c r="H3">
-        <v>0.9103986353669365</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -7570,18 +7570,18 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.8918520056601319</v>
+        <v>0.89</v>
       </c>
       <c r="G4">
-        <v>0.9273618495495703</v>
+        <v>0.93</v>
       </c>
       <c r="H4">
-        <v>0.9094336289655632</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B5">
         <v>0.99</v>
@@ -7596,13 +7596,13 @@
         <v>0.98</v>
       </c>
       <c r="F5">
-        <v>0.895488693395958</v>
+        <v>0.9</v>
       </c>
       <c r="G5">
-        <v>0.9180413934022801</v>
+        <v>0.92</v>
       </c>
       <c r="H5">
-        <v>0.9066949254634727</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -7622,13 +7622,13 @@
         <v>0.9</v>
       </c>
       <c r="F6">
-        <v>0.9049861877399014</v>
+        <v>0.9</v>
       </c>
       <c r="G6">
         <v>0.9</v>
       </c>
       <c r="H6">
-        <v>0.9024896503372829</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -7648,65 +7648,65 @@
         <v>0.92</v>
       </c>
       <c r="F7">
-        <v>0.8742997197757757</v>
+        <v>0.87</v>
       </c>
       <c r="G7">
-        <v>0.9048756820690895</v>
+        <v>0.9</v>
       </c>
       <c r="H7">
-        <v>0.8894563256646831</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B8">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="C8">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="D8">
+        <v>0.85</v>
+      </c>
+      <c r="E8">
+        <v>0.93</v>
+      </c>
+      <c r="F8">
         <v>0.86</v>
       </c>
-      <c r="E8">
-        <v>0.84</v>
-      </c>
-      <c r="F8">
-        <v>0.895488693395958</v>
-      </c>
       <c r="G8">
-        <v>0.849941174435031</v>
+        <v>0.89</v>
       </c>
       <c r="H8">
-        <v>0.872417739250098</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B9">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="C9">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D9">
+        <v>0.86</v>
+      </c>
+      <c r="E9">
+        <v>0.84</v>
+      </c>
+      <c r="F9">
+        <v>0.9</v>
+      </c>
+      <c r="G9">
         <v>0.85</v>
       </c>
-      <c r="E9">
-        <v>0.93</v>
-      </c>
-      <c r="F9">
-        <v>0.8552777326693358</v>
-      </c>
-      <c r="G9">
-        <v>0.8891006692158093</v>
-      </c>
       <c r="H9">
-        <v>0.8720252315625314</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -7726,13 +7726,13 @@
         <v>0.88</v>
       </c>
       <c r="F10">
-        <v>0.8383913167489272</v>
+        <v>0.84</v>
       </c>
       <c r="G10">
-        <v>0.8948742928478838</v>
+        <v>0.89</v>
       </c>
       <c r="H10">
-        <v>0.8661725213290378</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -7752,18 +7752,18 @@
         <v>0.79</v>
       </c>
       <c r="F11">
-        <v>0.8933084573650918</v>
+        <v>0.89</v>
       </c>
       <c r="G11">
-        <v>0.8290355842785037</v>
+        <v>0.83</v>
       </c>
       <c r="H11">
-        <v>0.8605721927256293</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B12">
         <v>0.9399999999999999</v>
@@ -7772,154 +7772,154 @@
         <v>0.77</v>
       </c>
       <c r="D12">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="E12">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="F12">
-        <v>0.8507643622061282</v>
+        <v>0.85</v>
       </c>
       <c r="G12">
-        <v>0.8646386528486915</v>
+        <v>0.86</v>
       </c>
       <c r="H12">
-        <v>0.8576734530283555</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="B13">
-        <v>0.66</v>
+        <v>0.95</v>
       </c>
       <c r="C13">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="D13">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="E13">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F13">
-        <v>0.7918333157931662</v>
+        <v>0.89</v>
       </c>
       <c r="G13">
-        <v>0.9249864863877743</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H13">
-        <v>0.855824232293233</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B14">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="C14">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="D14">
         <v>0.85</v>
       </c>
       <c r="E14">
+        <v>0.82</v>
+      </c>
+      <c r="F14">
         <v>0.87</v>
       </c>
-      <c r="F14">
-        <v>0.8507643622061282</v>
-      </c>
       <c r="G14">
-        <v>0.8599418584997476</v>
+        <v>0.83</v>
       </c>
       <c r="H14">
-        <v>0.8553408015410525</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="B15">
-        <v>0.96</v>
+        <v>0.66</v>
       </c>
       <c r="C15">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="D15">
+        <v>0.93</v>
+      </c>
+      <c r="E15">
+        <v>0.92</v>
+      </c>
+      <c r="F15">
+        <v>0.79</v>
+      </c>
+      <c r="G15">
+        <v>0.92</v>
+      </c>
+      <c r="H15">
         <v>0.85</v>
-      </c>
-      <c r="E15">
-        <v>0.82</v>
-      </c>
-      <c r="F15">
-        <v>0.8653323061113575</v>
-      </c>
-      <c r="G15">
-        <v>0.8348652585896721</v>
-      </c>
-      <c r="H15">
-        <v>0.8499622812264411</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B16">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C16">
+        <v>0.77</v>
+      </c>
+      <c r="D16">
         <v>0.84</v>
       </c>
-      <c r="D16">
-        <v>0.87</v>
-      </c>
       <c r="E16">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="F16">
-        <v>0.8933084573650918</v>
+        <v>0.85</v>
       </c>
       <c r="G16">
-        <v>0.8077747210701756</v>
+        <v>0.86</v>
       </c>
       <c r="H16">
-        <v>0.8494657085354981</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B17">
-        <v>0.9399999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="C17">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="D17">
         <v>0.89</v>
       </c>
       <c r="E17">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="F17">
-        <v>0.9043229511629128</v>
+        <v>0.88</v>
       </c>
       <c r="G17">
-        <v>0.7893034904268447</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H17">
-        <v>0.8448581311829768</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B18">
         <v>0.9399999999999999</v>
@@ -7928,154 +7928,154 @@
         <v>0.84</v>
       </c>
       <c r="D18">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="E18">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="F18">
-        <v>0.8885943956609225</v>
+        <v>0.89</v>
       </c>
       <c r="G18">
-        <v>0.8031189202104505</v>
+        <v>0.79</v>
       </c>
       <c r="H18">
-        <v>0.8447762849111342</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B19">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C19">
-        <v>0.74</v>
+        <v>0.84</v>
       </c>
       <c r="D19">
+        <v>0.86</v>
+      </c>
+      <c r="E19">
+        <v>0.75</v>
+      </c>
+      <c r="F19">
+        <v>0.89</v>
+      </c>
+      <c r="G19">
+        <v>0.8</v>
+      </c>
+      <c r="H19">
         <v>0.84</v>
-      </c>
-      <c r="E19">
-        <v>0.9</v>
-      </c>
-      <c r="F19">
-        <v>0.8160882305241266</v>
-      </c>
-      <c r="G19">
-        <v>0.8694826047713663</v>
-      </c>
-      <c r="H19">
-        <v>0.8423624637882274</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B20">
-        <v>0.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C20">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="D20">
         <v>0.89</v>
       </c>
       <c r="E20">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="F20">
-        <v>0.8794884877018004</v>
+        <v>0.9</v>
       </c>
       <c r="G20">
-        <v>0.8060397012554654</v>
+        <v>0.79</v>
       </c>
       <c r="H20">
-        <v>0.8419635609008149</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="B21">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="C21">
+        <v>0.74</v>
+      </c>
+      <c r="D21">
         <v>0.84</v>
       </c>
-      <c r="D21">
+      <c r="E21">
+        <v>0.9</v>
+      </c>
+      <c r="F21">
+        <v>0.82</v>
+      </c>
+      <c r="G21">
         <v>0.87</v>
       </c>
-      <c r="E21">
-        <v>0.72</v>
-      </c>
-      <c r="F21">
-        <v>0.8885943956609225</v>
-      </c>
-      <c r="G21">
-        <v>0.7914543574963752</v>
-      </c>
       <c r="H21">
-        <v>0.8386190472990076</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="B22">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="C22">
-        <v>0.84</v>
+        <v>0.7</v>
       </c>
       <c r="D22">
-        <v>0.9399999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="E22">
-        <v>0.77</v>
+        <v>0.98</v>
       </c>
       <c r="F22">
-        <v>0.8248636250920512</v>
+        <v>0.76</v>
       </c>
       <c r="G22">
-        <v>0.8507643622061282</v>
+        <v>0.9</v>
       </c>
       <c r="H22">
-        <v>0.8377138986005149</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="B23">
-        <v>0.92</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C23">
+        <v>0.84</v>
+      </c>
+      <c r="D23">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E23">
+        <v>0.77</v>
+      </c>
+      <c r="F23">
+        <v>0.82</v>
+      </c>
+      <c r="G23">
         <v>0.85</v>
       </c>
-      <c r="D23">
-        <v>0.87</v>
-      </c>
-      <c r="E23">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="F23">
-        <v>0.8843076387773657</v>
-      </c>
-      <c r="G23">
-        <v>0.7747902942086975</v>
-      </c>
       <c r="H23">
-        <v>0.8277396786546564</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B24">
         <v>0.83</v>
@@ -8087,21 +8087,21 @@
         <v>0.82</v>
       </c>
       <c r="E24">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F24">
-        <v>0.7622335600063802</v>
+        <v>0.76</v>
       </c>
       <c r="G24">
-        <v>0.8964373932405988</v>
+        <v>0.89</v>
       </c>
       <c r="H24">
-        <v>0.8266163956592084</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B25">
         <v>0.91</v>
@@ -8116,39 +8116,39 @@
         <v>0.8</v>
       </c>
       <c r="F25">
-        <v>0.8261355820929153</v>
+        <v>0.83</v>
       </c>
       <c r="G25">
-        <v>0.8197560612767679</v>
+        <v>0.82</v>
       </c>
       <c r="H25">
-        <v>0.8229396398625346</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="B26">
+        <v>0.96</v>
+      </c>
+      <c r="C26">
         <v>0.83</v>
       </c>
-      <c r="C26">
-        <v>0.7</v>
-      </c>
       <c r="D26">
+        <v>0.86</v>
+      </c>
+      <c r="E26">
+        <v>0.65</v>
+      </c>
+      <c r="F26">
+        <v>0.89</v>
+      </c>
+      <c r="G26">
+        <v>0.75</v>
+      </c>
+      <c r="H26">
         <v>0.82</v>
-      </c>
-      <c r="E26">
-        <v>0.96</v>
-      </c>
-      <c r="F26">
-        <v>0.7622335600063802</v>
-      </c>
-      <c r="G26">
-        <v>0.8872429205127533</v>
-      </c>
-      <c r="H26">
-        <v>0.8223662990984576</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -8156,51 +8156,51 @@
         <v>74</v>
       </c>
       <c r="B27">
+        <v>0.92</v>
+      </c>
+      <c r="C27">
         <v>0.85</v>
       </c>
-      <c r="C27">
-        <v>0.9</v>
-      </c>
       <c r="D27">
+        <v>0.87</v>
+      </c>
+      <c r="E27">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F27">
         <v>0.88</v>
       </c>
-      <c r="E27">
-        <v>0.67</v>
-      </c>
-      <c r="F27">
-        <v>0.8746427842267951</v>
-      </c>
       <c r="G27">
-        <v>0.7678541528180987</v>
+        <v>0.77</v>
       </c>
       <c r="H27">
-        <v>0.819510887115558</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="B28">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="C28">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="D28">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="E28">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="F28">
-        <v>0.8926365441768559</v>
+        <v>0.87</v>
       </c>
       <c r="G28">
-        <v>0.7476630257007498</v>
+        <v>0.77</v>
       </c>
       <c r="H28">
-        <v>0.8169402300476634</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -8220,39 +8220,39 @@
         <v>0.68</v>
       </c>
       <c r="F29">
-        <v>0.8753856293085922</v>
+        <v>0.88</v>
       </c>
       <c r="G29">
-        <v>0.7602631123499285</v>
+        <v>0.76</v>
       </c>
       <c r="H29">
-        <v>0.8157961773902541</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="B30">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="C30">
+        <v>0.68</v>
+      </c>
+      <c r="D30">
         <v>0.82</v>
       </c>
-      <c r="D30">
-        <v>0.9</v>
-      </c>
       <c r="E30">
-        <v>0.65</v>
+        <v>0.92</v>
       </c>
       <c r="F30">
-        <v>0.8542833253669417</v>
+        <v>0.74</v>
       </c>
       <c r="G30">
-        <v>0.7648529270389178</v>
+        <v>0.87</v>
       </c>
       <c r="H30">
-        <v>0.8083322967242158</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -8272,70 +8272,70 @@
         <v>0.62</v>
       </c>
       <c r="F31">
-        <v>0.8843076387773657</v>
+        <v>0.88</v>
       </c>
       <c r="G31">
-        <v>0.7344385610791416</v>
+        <v>0.73</v>
       </c>
       <c r="H31">
-        <v>0.8058967860557218</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="B32">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="C32">
         <v>0.82</v>
       </c>
       <c r="D32">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="E32">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="F32">
-        <v>0.8964373932405988</v>
+        <v>0.85</v>
       </c>
       <c r="G32">
-        <v>0.7242927584892728</v>
+        <v>0.76</v>
       </c>
       <c r="H32">
-        <v>0.8057810573370202</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="B33">
+        <v>0.98</v>
+      </c>
+      <c r="C33">
+        <v>0.82</v>
+      </c>
+      <c r="D33">
+        <v>0.86</v>
+      </c>
+      <c r="E33">
+        <v>0.61</v>
+      </c>
+      <c r="F33">
+        <v>0.9</v>
+      </c>
+      <c r="G33">
+        <v>0.72</v>
+      </c>
+      <c r="H33">
         <v>0.8</v>
-      </c>
-      <c r="C33">
-        <v>0.68</v>
-      </c>
-      <c r="D33">
-        <v>0.82</v>
-      </c>
-      <c r="E33">
-        <v>0.92</v>
-      </c>
-      <c r="F33">
-        <v>0.737563556583431</v>
-      </c>
-      <c r="G33">
-        <v>0.8685620300243385</v>
-      </c>
-      <c r="H33">
-        <v>0.8003872187748102</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B34">
         <v>0.79</v>
@@ -8350,13 +8350,13 @@
         <v>0.93</v>
       </c>
       <c r="F34">
-        <v>0.7275300681071539</v>
+        <v>0.73</v>
       </c>
       <c r="G34">
-        <v>0.8679285684893659</v>
+        <v>0.87</v>
       </c>
       <c r="H34">
-        <v>0.794634589320911</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -8376,96 +8376,96 @@
         <v>0.58</v>
       </c>
       <c r="F35">
-        <v>0.8885943956609225</v>
+        <v>0.89</v>
       </c>
       <c r="G35">
-        <v>0.7103520254071216</v>
+        <v>0.71</v>
       </c>
       <c r="H35">
-        <v>0.7944902949206828</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B36">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="C36">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="D36">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="E36">
-        <v>0.63</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F36">
-        <v>0.8552777326693358</v>
+        <v>0.82</v>
       </c>
       <c r="G36">
-        <v>0.7317786550590281</v>
+        <v>0.76</v>
       </c>
       <c r="H36">
-        <v>0.7911219810589903</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="C37">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="D37">
         <v>0.85</v>
       </c>
       <c r="E37">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="F37">
-        <v>0.8944271909999159</v>
+        <v>0.86</v>
       </c>
       <c r="G37">
-        <v>0.6960603422117941</v>
+        <v>0.73</v>
       </c>
       <c r="H37">
-        <v>0.7890344077737897</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B38">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>0.74</v>
+        <v>0.8</v>
       </c>
       <c r="D38">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="E38">
-        <v>0.6899999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="F38">
-        <v>0.8160882305241266</v>
+        <v>0.89</v>
       </c>
       <c r="G38">
-        <v>0.7613146524269712</v>
+        <v>0.7</v>
       </c>
       <c r="H38">
-        <v>0.7882258100133599</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39">
         <v>0.9399999999999999</v>
@@ -8480,122 +8480,122 @@
         <v>0.53</v>
       </c>
       <c r="F39">
-        <v>0.8885943956609225</v>
+        <v>0.89</v>
       </c>
       <c r="G39">
-        <v>0.6790434448545984</v>
+        <v>0.68</v>
       </c>
       <c r="H39">
-        <v>0.7767845257908288</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="B40">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="C40">
+        <v>0.76</v>
+      </c>
+      <c r="D40">
+        <v>0.84</v>
+      </c>
+      <c r="E40">
+        <v>0.6</v>
+      </c>
+      <c r="F40">
+        <v>0.84</v>
+      </c>
+      <c r="G40">
         <v>0.71</v>
       </c>
-      <c r="D40">
-        <v>0.83</v>
-      </c>
-      <c r="E40">
-        <v>0.72</v>
-      </c>
-      <c r="F40">
-        <v>0.7768526243760782</v>
-      </c>
-      <c r="G40">
-        <v>0.7730459236035074</v>
-      </c>
       <c r="H40">
-        <v>0.7749469365799274</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="B41">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="C41">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D41">
+        <v>0.82</v>
+      </c>
+      <c r="E41">
+        <v>0.76</v>
+      </c>
+      <c r="F41">
         <v>0.75</v>
       </c>
-      <c r="D41">
-        <v>0.84</v>
-      </c>
-      <c r="E41">
-        <v>0.62</v>
-      </c>
-      <c r="F41">
-        <v>0.8306623862918076</v>
-      </c>
       <c r="G41">
-        <v>0.7216647421067486</v>
+        <v>0.79</v>
       </c>
       <c r="H41">
-        <v>0.7742478652092324</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="B42">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="C42">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="D42">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="E42">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="F42">
-        <v>0.8407139822793481</v>
+        <v>0.87</v>
       </c>
       <c r="G42">
-        <v>0.7099295739719539</v>
+        <v>0.68</v>
       </c>
       <c r="H42">
-        <v>0.7725592011437327</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B43">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="C43">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="D43">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="E43">
+        <v>0.7</v>
+      </c>
+      <c r="F43">
+        <v>0.78</v>
+      </c>
+      <c r="G43">
         <v>0.76</v>
       </c>
-      <c r="F43">
-        <v>0.7521967827636595</v>
-      </c>
-      <c r="G43">
-        <v>0.789430174239622</v>
-      </c>
       <c r="H43">
-        <v>0.7705886303856285</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B44">
         <v>0.85</v>
@@ -8607,489 +8607,489 @@
         <v>0.83</v>
       </c>
       <c r="E44">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="F44">
-        <v>0.7768526243760782</v>
+        <v>0.78</v>
       </c>
       <c r="G44">
-        <v>0.7622335600063802</v>
+        <v>0.77</v>
       </c>
       <c r="H44">
-        <v>0.7695083764836335</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="B45">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="C45">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="D45">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="E45">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="F45">
-        <v>0.8698275691193054</v>
+        <v>0.89</v>
       </c>
       <c r="G45">
-        <v>0.6774953874381729</v>
+        <v>0.66</v>
       </c>
       <c r="H45">
-        <v>0.7676614917689228</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B46">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="C46">
+        <v>0.75</v>
+      </c>
+      <c r="D46">
+        <v>0.84</v>
+      </c>
+      <c r="E46">
+        <v>0.62</v>
+      </c>
+      <c r="F46">
         <v>0.83</v>
       </c>
-      <c r="D46">
-        <v>0.86</v>
-      </c>
-      <c r="E46">
-        <v>0.5</v>
-      </c>
-      <c r="F46">
-        <v>0.8926365441768559</v>
-      </c>
       <c r="G46">
-        <v>0.6557438524302001</v>
+        <v>0.72</v>
       </c>
       <c r="H46">
-        <v>0.7650757650706967</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B47">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="C47">
         <v>0.64</v>
       </c>
       <c r="D47">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="E47">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="F47">
-        <v>0.6928203230275509</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G47">
-        <v>0.8442748367682174</v>
+        <v>0.85</v>
       </c>
       <c r="H47">
-        <v>0.7648076654517717</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="B48">
-        <v>0.74</v>
+        <v>0.91</v>
       </c>
       <c r="C48">
-        <v>0.64</v>
+        <v>0.75</v>
       </c>
       <c r="D48">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="E48">
-        <v>0.9</v>
+        <v>0.59</v>
       </c>
       <c r="F48">
-        <v>0.6881860213634101</v>
+        <v>0.83</v>
       </c>
       <c r="G48">
-        <v>0.8485281374238571</v>
+        <v>0.7</v>
       </c>
       <c r="H48">
-        <v>0.7641630735050138</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="B49">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="C49">
-        <v>0.85</v>
+        <v>0.64</v>
       </c>
       <c r="D49">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E49">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F49">
-        <v>0.8843076387773657</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G49">
-        <v>0.6595452979136459</v>
+        <v>0.84</v>
       </c>
       <c r="H49">
-        <v>0.7637021311118167</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="B50">
-        <v>0.82</v>
+        <v>0.92</v>
       </c>
       <c r="C50">
-        <v>0.6899999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="D50">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
       <c r="E50">
-        <v>0.73</v>
+        <v>0.5</v>
       </c>
       <c r="F50">
-        <v>0.7521967827636595</v>
+        <v>0.88</v>
       </c>
       <c r="G50">
-        <v>0.7736924453553879</v>
+        <v>0.66</v>
       </c>
       <c r="H50">
-        <v>0.7628689063298303</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="B51">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="D51">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="E51">
-        <v>0.59</v>
+        <v>0.52</v>
       </c>
       <c r="F51">
-        <v>0.8261355820929153</v>
+        <v>0.88</v>
       </c>
       <c r="G51">
-        <v>0.7039886362719217</v>
+        <v>0.66</v>
       </c>
       <c r="H51">
-        <v>0.7626205228115105</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="C52">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="D52">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="E52">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="F52">
-        <v>0.8831760866327847</v>
+        <v>0.84</v>
       </c>
       <c r="G52">
-        <v>0.6569627082262737</v>
+        <v>0.68</v>
       </c>
       <c r="H52">
-        <v>0.7617176338479741</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B53">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="C53">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="D53">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="E53">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="F53">
-        <v>0.8899438184514796</v>
+        <v>0.83</v>
       </c>
       <c r="G53">
-        <v>0.6519202405202649</v>
+        <v>0.7</v>
       </c>
       <c r="H53">
-        <v>0.7616904805591386</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B54">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="C54">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D54">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="E54">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="F54">
-        <v>0.8261355820929153</v>
+        <v>0.89</v>
       </c>
       <c r="G54">
-        <v>0.6979971346646059</v>
+        <v>0.65</v>
       </c>
       <c r="H54">
-        <v>0.7593683356220031</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="B55">
+        <v>0.82</v>
+      </c>
+      <c r="C55">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D55">
+        <v>0.82</v>
+      </c>
+      <c r="E55">
+        <v>0.73</v>
+      </c>
+      <c r="F55">
+        <v>0.75</v>
+      </c>
+      <c r="G55">
+        <v>0.77</v>
+      </c>
+      <c r="H55">
         <v>0.76</v>
-      </c>
-      <c r="C55">
-        <v>0.96</v>
-      </c>
-      <c r="D55">
-        <v>0.9</v>
-      </c>
-      <c r="E55">
-        <v>0.5</v>
-      </c>
-      <c r="F55">
-        <v>0.854166260162505</v>
-      </c>
-      <c r="G55">
-        <v>0.6708203932499369</v>
-      </c>
-      <c r="H55">
-        <v>0.7569624472475762</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="B56">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="C56">
-        <v>0.76</v>
+        <v>0.67</v>
       </c>
       <c r="D56">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="E56">
-        <v>0.55</v>
+        <v>0.71</v>
       </c>
       <c r="F56">
-        <v>0.8407139822793481</v>
+        <v>0.75</v>
       </c>
       <c r="G56">
-        <v>0.6797058187186572</v>
+        <v>0.75</v>
       </c>
       <c r="H56">
-        <v>0.7559353051904687</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="B57">
-        <v>0.77</v>
+        <v>0.67</v>
       </c>
       <c r="C57">
-        <v>0.66</v>
+        <v>0.96</v>
       </c>
       <c r="D57">
-        <v>0.8100000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="E57">
-        <v>0.79</v>
+        <v>0.53</v>
       </c>
       <c r="F57">
-        <v>0.7128814768248646</v>
+        <v>0.8</v>
       </c>
       <c r="G57">
-        <v>0.799937497558403</v>
+        <v>0.7</v>
       </c>
       <c r="H57">
-        <v>0.7551560266772827</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="B58">
+        <v>0.76</v>
+      </c>
+      <c r="C58">
+        <v>0.96</v>
+      </c>
+      <c r="D58">
+        <v>0.9</v>
+      </c>
+      <c r="E58">
+        <v>0.5</v>
+      </c>
+      <c r="F58">
         <v>0.85</v>
       </c>
-      <c r="C58">
+      <c r="G58">
         <v>0.67</v>
       </c>
-      <c r="D58">
-        <v>0.8</v>
-      </c>
-      <c r="E58">
-        <v>0.71</v>
-      </c>
-      <c r="F58">
-        <v>0.7546522377890362</v>
-      </c>
-      <c r="G58">
-        <v>0.7536577472566709</v>
-      </c>
       <c r="H58">
-        <v>0.7541548285957537</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="B59">
-        <v>0.67</v>
+        <v>0.77</v>
       </c>
       <c r="C59">
-        <v>0.96</v>
+        <v>0.66</v>
       </c>
       <c r="D59">
-        <v>0.93</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E59">
-        <v>0.53</v>
+        <v>0.79</v>
       </c>
       <c r="F59">
-        <v>0.8019975062305369</v>
+        <v>0.71</v>
       </c>
       <c r="G59">
-        <v>0.7020683727387241</v>
+        <v>0.8</v>
       </c>
       <c r="H59">
-        <v>0.750371297518627</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="B60">
-        <v>0.76</v>
+        <v>0.87</v>
       </c>
       <c r="C60">
-        <v>0.65</v>
+        <v>0.72</v>
       </c>
       <c r="D60">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="E60">
-        <v>0.78</v>
+        <v>0.57</v>
       </c>
       <c r="F60">
-        <v>0.7028513356322232</v>
+        <v>0.79</v>
       </c>
       <c r="G60">
-        <v>0.7948584779695063</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H60">
-        <v>0.7474405279883233</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="B61">
-        <v>0.9399999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="C61">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
       <c r="D61">
-        <v>0.84</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E61">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="F61">
-        <v>0.8507643622061282</v>
+        <v>0.7</v>
       </c>
       <c r="G61">
-        <v>0.648074069840786</v>
+        <v>0.79</v>
       </c>
       <c r="H61">
-        <v>0.7425350649568181</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="B62">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C62">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="D62">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="E62">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="F62">
-        <v>0.7914543574963752</v>
+        <v>0.85</v>
       </c>
       <c r="G62">
-        <v>0.6878226515607057</v>
+        <v>0.65</v>
       </c>
       <c r="H62">
-        <v>0.7378212756233257</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B63">
         <v>0.67</v>
@@ -9104,18 +9104,18 @@
         <v>0.9</v>
       </c>
       <c r="F63">
-        <v>0.628728876384726</v>
+        <v>0.63</v>
       </c>
       <c r="G63">
-        <v>0.8432081593533118</v>
+        <v>0.84</v>
       </c>
       <c r="H63">
-        <v>0.7281135341336821</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B64">
         <v>0.88</v>
@@ -9130,13 +9130,13 @@
         <v>0.51</v>
       </c>
       <c r="F64">
-        <v>0.8014985963805551</v>
+        <v>0.8</v>
       </c>
       <c r="G64">
-        <v>0.6506150935845249</v>
+        <v>0.65</v>
       </c>
       <c r="H64">
-        <v>0.7221267785451528</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -9156,44 +9156,44 @@
         <v>0.52</v>
       </c>
       <c r="F65">
-        <v>0.7914543574963752</v>
+        <v>0.79</v>
       </c>
       <c r="G65">
-        <v>0.6569627082262737</v>
+        <v>0.66</v>
       </c>
       <c r="H65">
-        <v>0.7210797446456974</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B66">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="C66">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D66">
+        <v>0.82</v>
+      </c>
+      <c r="E66">
+        <v>0.54</v>
+      </c>
+      <c r="F66">
+        <v>0.75</v>
+      </c>
+      <c r="G66">
+        <v>0.67</v>
+      </c>
+      <c r="H66">
         <v>0.71</v>
-      </c>
-      <c r="D66">
-        <v>0.83</v>
-      </c>
-      <c r="E66">
-        <v>0.51</v>
-      </c>
-      <c r="F66">
-        <v>0.7768526243760782</v>
-      </c>
-      <c r="G66">
-        <v>0.6506150935845249</v>
-      </c>
-      <c r="H66">
-        <v>0.7109374395189958</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>156</v>
+        <v>55</v>
       </c>
       <c r="B67">
         <v>0.82</v>
@@ -9208,39 +9208,39 @@
         <v>0.54</v>
       </c>
       <c r="F67">
-        <v>0.7521967827636595</v>
+        <v>0.75</v>
       </c>
       <c r="G67">
-        <v>0.665432190384565</v>
+        <v>0.67</v>
       </c>
       <c r="H67">
-        <v>0.7074856555115763</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="B68">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="C68">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="D68">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="E68">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="F68">
-        <v>0.7521967827636595</v>
+        <v>0.78</v>
       </c>
       <c r="G68">
-        <v>0.665432190384565</v>
+        <v>0.65</v>
       </c>
       <c r="H68">
-        <v>0.7074856555115763</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -9260,13 +9260,13 @@
         <v>0.51</v>
       </c>
       <c r="F69">
-        <v>0.7493997598078078</v>
+        <v>0.75</v>
       </c>
       <c r="G69">
-        <v>0.6622688275919379</v>
+        <v>0.66</v>
       </c>
       <c r="H69">
-        <v>0.7044885381080354</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -9286,44 +9286,44 @@
         <v>0.93</v>
       </c>
       <c r="F70">
-        <v>0.5692099788303083</v>
+        <v>0.57</v>
       </c>
       <c r="G70">
-        <v>0.8462269199216013</v>
+        <v>0.85</v>
       </c>
       <c r="H70">
-        <v>0.6940322810750316</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="B71">
+        <v>0.6</v>
+      </c>
+      <c r="C71">
+        <v>0.54</v>
+      </c>
+      <c r="D71">
+        <v>0.77</v>
+      </c>
+      <c r="E71">
+        <v>0.83</v>
+      </c>
+      <c r="F71">
         <v>0.57</v>
       </c>
-      <c r="C71">
-        <v>0.67</v>
-      </c>
-      <c r="D71">
-        <v>0.89</v>
-      </c>
-      <c r="E71">
-        <v>0.64</v>
-      </c>
-      <c r="F71">
-        <v>0.617980582219215</v>
-      </c>
       <c r="G71">
-        <v>0.7547184905645283</v>
+        <v>0.8</v>
       </c>
       <c r="H71">
-        <v>0.6829358478002706</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B72">
         <v>0.6</v>
@@ -9338,117 +9338,117 @@
         <v>0.88</v>
       </c>
       <c r="F72">
-        <v>0.5639148871948674</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G72">
-        <v>0.8178019320104349</v>
+        <v>0.82</v>
       </c>
       <c r="H72">
-        <v>0.6790954897784325</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="B73">
-        <v>0.77</v>
+        <v>0.57</v>
       </c>
       <c r="C73">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="D73">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="E73">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="F73">
-        <v>0.7128814768248646</v>
+        <v>0.62</v>
       </c>
       <c r="G73">
-        <v>0.6427285585688565</v>
+        <v>0.75</v>
       </c>
       <c r="H73">
-        <v>0.6768968045648338</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="B74">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
       <c r="C74">
-        <v>0.54</v>
+        <v>0.66</v>
       </c>
       <c r="D74">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E74">
-        <v>0.83</v>
+        <v>0.51</v>
       </c>
       <c r="F74">
-        <v>0.5692099788303083</v>
+        <v>0.71</v>
       </c>
       <c r="G74">
-        <v>0.7994373021069258</v>
+        <v>0.64</v>
       </c>
       <c r="H74">
-        <v>0.6745722272732861</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="B75">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C75">
+        <v>0.61</v>
+      </c>
+      <c r="D75">
+        <v>0.79</v>
+      </c>
+      <c r="E75">
+        <v>0.58</v>
+      </c>
+      <c r="F75">
         <v>0.65</v>
       </c>
-      <c r="C75">
-        <v>0.58</v>
-      </c>
-      <c r="D75">
-        <v>0.78</v>
-      </c>
-      <c r="E75">
-        <v>0.67</v>
-      </c>
-      <c r="F75">
-        <v>0.6140032573203501</v>
-      </c>
       <c r="G75">
-        <v>0.7229107828771127</v>
+        <v>0.68</v>
       </c>
       <c r="H75">
-        <v>0.6662353754031315</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="B76">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="C76">
+        <v>0.58</v>
+      </c>
+      <c r="D76">
+        <v>0.78</v>
+      </c>
+      <c r="E76">
+        <v>0.67</v>
+      </c>
+      <c r="F76">
         <v>0.61</v>
       </c>
-      <c r="D76">
-        <v>0.79</v>
-      </c>
-      <c r="E76">
-        <v>0.58</v>
-      </c>
-      <c r="F76">
-        <v>0.6487680633323437</v>
-      </c>
       <c r="G76">
-        <v>0.6769047200308179</v>
+        <v>0.72</v>
       </c>
       <c r="H76">
-        <v>0.6626870786992274</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -9468,13 +9468,13 @@
         <v>0.68</v>
       </c>
       <c r="F77">
-        <v>0.5939696961966999</v>
+        <v>0.59</v>
       </c>
       <c r="G77">
-        <v>0.7282856582413251</v>
+        <v>0.73</v>
       </c>
       <c r="H77">
-        <v>0.6577078463649445</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -9494,13 +9494,13 @@
         <v>0.51</v>
       </c>
       <c r="F78">
-        <v>0.6734983296193094</v>
+        <v>0.67</v>
       </c>
       <c r="G78">
-        <v>0.6387487769068525</v>
+        <v>0.64</v>
       </c>
       <c r="H78">
-        <v>0.6558934626089378</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -9520,13 +9520,13 @@
         <v>0.67</v>
       </c>
       <c r="F79">
-        <v>0.5939696961966999</v>
+        <v>0.59</v>
       </c>
       <c r="G79">
-        <v>0.7229107828771127</v>
+        <v>0.72</v>
       </c>
       <c r="H79">
-        <v>0.6552763524520301</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -9546,13 +9546,13 @@
         <v>0.59</v>
       </c>
       <c r="F80">
-        <v>0.628728876384726</v>
+        <v>0.63</v>
       </c>
       <c r="G80">
-        <v>0.6827151675479314</v>
+        <v>0.68</v>
       </c>
       <c r="H80">
-        <v>0.655166192796317</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -9572,65 +9572,65 @@
         <v>0.52</v>
       </c>
       <c r="F81">
-        <v>0.6634756966159349</v>
+        <v>0.66</v>
       </c>
       <c r="G81">
-        <v>0.6409368143584826</v>
+        <v>0.64</v>
       </c>
       <c r="H81">
-        <v>0.6521088861480822</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="B82">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="C82">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="D82">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="E82">
-        <v>0.84</v>
+        <v>0.67</v>
       </c>
       <c r="F82">
-        <v>0.5244044240850758</v>
+        <v>0.57</v>
       </c>
       <c r="G82">
-        <v>0.7989993742175271</v>
+        <v>0.72</v>
       </c>
       <c r="H82">
-        <v>0.6473011715429521</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="B83">
-        <v>0.65</v>
+        <v>0.55</v>
       </c>
       <c r="C83">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="D83">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="E83">
-        <v>0.57</v>
+        <v>0.84</v>
       </c>
       <c r="F83">
-        <v>0.6140032573203501</v>
+        <v>0.52</v>
       </c>
       <c r="G83">
-        <v>0.666783323126786</v>
+        <v>0.8</v>
       </c>
       <c r="H83">
-        <v>0.6398493043887241</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -9638,30 +9638,30 @@
         <v>45</v>
       </c>
       <c r="B84">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="C84">
-        <v>0.54</v>
+        <v>0.58</v>
       </c>
       <c r="D84">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="E84">
+        <v>0.57</v>
+      </c>
+      <c r="F84">
+        <v>0.61</v>
+      </c>
+      <c r="G84">
         <v>0.67</v>
       </c>
-      <c r="F84">
-        <v>0.5692099788303083</v>
-      </c>
-      <c r="G84">
-        <v>0.7182617907142215</v>
-      </c>
       <c r="H84">
-        <v>0.6394073652117728</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B85">
         <v>0.61</v>
@@ -9676,18 +9676,18 @@
         <v>0.62</v>
       </c>
       <c r="F85">
-        <v>0.5792236183029832</v>
+        <v>0.58</v>
       </c>
       <c r="G85">
-        <v>0.690941386804988</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H85">
-        <v>0.6326211900501486</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B86">
         <v>0.61</v>
@@ -9702,18 +9702,18 @@
         <v>0.54</v>
       </c>
       <c r="F86">
-        <v>0.5792236183029832</v>
+        <v>0.58</v>
       </c>
       <c r="G86">
-        <v>0.6448255578061404</v>
+        <v>0.64</v>
       </c>
       <c r="H86">
-        <v>0.611144985062229</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B87">
         <v>0.57</v>
@@ -9728,13 +9728,13 @@
         <v>0.6</v>
       </c>
       <c r="F87">
-        <v>0.544426303552648</v>
+        <v>0.54</v>
       </c>
       <c r="G87">
-        <v>0.6752777206453653</v>
+        <v>0.68</v>
       </c>
       <c r="H87">
-        <v>0.6063323785865421</v>
+        <v>0.61</v>
       </c>
     </row>
   </sheetData>
